--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="2003" documentId="11_C4DF23FA0BD6C6ABFBE65FAFFEF3BD1E0125B9A1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0673DC5-C96A-4965-BF2B-F2B174279265}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D0710-4A88-4524-8D16-A06F28E7F464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2124" windowWidth="17280" windowHeight="9060" tabRatio="415" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Erstellung</t>
+  </si>
+  <si>
+    <t>Userstories, Datenbankstruktur, Prototype</t>
   </si>
 </sst>
 </file>
@@ -1323,6 +1326,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1341,15 +1353,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="20" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2899,6 +2902,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-46FD-4C5C-A1C0-E4F5082E896A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2918,6 +2926,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-46FD-4C5C-A1C0-E4F5082E896A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3017,16 +3030,16 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17361111111111122</c:v>
+                  <c:v>0.3715277777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17361111111111122</c:v>
+                  <c:v>0.3715277777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17361111111111122</c:v>
+                  <c:v>0.3715277777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21527777777777785</c:v>
+                  <c:v>0.37152777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,30 +4269,30 @@
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="81">
+      <c r="G2" s="82"/>
+      <c r="H2" s="84">
         <v>44097</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="F3" s="78" t="s">
+      <c r="B3" s="87"/>
+      <c r="F3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="41">
         <v>0</v>
       </c>
@@ -4369,16 +4382,16 @@
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="42">
         <f ca="1">IFERROR(Projekt_Start+Scroll_Schrittweite,TODAY())</f>
         <v>44097</v>
@@ -6672,7 +6685,7 @@
       <c r="B16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="79">
         <v>0.41666666666666669</v>
       </c>
       <c r="D16" s="59" t="str">
@@ -6757,7 +6770,7 @@
       <c r="B17" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="79">
         <v>0.41666666666666669</v>
       </c>
       <c r="D17" s="59" t="str">
@@ -7592,7 +7605,7 @@
       <c r="B26" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="79">
         <v>0.20833333333333334</v>
       </c>
       <c r="D26" s="59" t="str">
@@ -7677,7 +7690,7 @@
       <c r="B27" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="79">
         <v>0.33333333333333331</v>
       </c>
       <c r="D27" s="59" t="str">
@@ -7762,7 +7775,7 @@
       <c r="B28" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="79">
         <v>0.25</v>
       </c>
       <c r="D28" s="59" t="str">
@@ -7847,7 +7860,7 @@
       <c r="B29" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="79">
         <v>0.41666666666666669</v>
       </c>
       <c r="D29" s="59" t="str">
@@ -7929,11 +7942,11 @@
     </row>
     <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="28"/>
@@ -8103,7 +8116,7 @@
       <c r="B32" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="79">
         <v>0.16666666666666666</v>
       </c>
       <c r="D32" s="59" t="str">
@@ -8188,7 +8201,7 @@
       <c r="B33" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="79">
         <v>0.29166666666666669</v>
       </c>
       <c r="D33" s="59" t="str">
@@ -8273,7 +8286,7 @@
       <c r="B34" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="79">
         <v>0.125</v>
       </c>
       <c r="D34" s="59" t="str">
@@ -8358,7 +8371,7 @@
       <c r="B35" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="79">
         <v>0.33333333333333331</v>
       </c>
       <c r="D35" s="59" t="str">
@@ -8443,7 +8456,7 @@
       <c r="B36" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="86">
+      <c r="C36" s="79">
         <v>0.16666666666666666</v>
       </c>
       <c r="D36" s="59" t="str">
@@ -8528,7 +8541,7 @@
       <c r="B37" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="86">
+      <c r="C37" s="79">
         <v>0.16666666666666666</v>
       </c>
       <c r="D37" s="59" t="str">
@@ -9665,7 +9678,7 @@
       </c>
       <c r="D46" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.12500000000000006</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>11</v>
@@ -9750,7 +9763,7 @@
       </c>
       <c r="D47" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.52777777777777812</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -10498,18 +10511,18 @@
       </c>
       <c r="D52" s="68">
         <f>SUM(D8:D51)</f>
-        <v>0.73611111111111149</v>
+        <v>1.4861111111111116</v>
       </c>
       <c r="E52" s="69" t="s">
         <v>37</v>
       </c>
       <c r="F52" s="31" t="str">
         <f>IF(D52=Übersicht!G44,"OK","FEHLER")</f>
-        <v>FEHLER</v>
+        <v>OK</v>
       </c>
       <c r="G52" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>5.105973025048173E-2</v>
+        <v>0.10308285163776498</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -11891,23 +11904,23 @@
       </c>
       <c r="C37" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B37,Jacob!F:F)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.12500000000000011</v>
       </c>
       <c r="D37" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B37,Roman!F:F)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.12500000000000011</v>
       </c>
       <c r="E37" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B37,Michi!F:F)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.12500000000000011</v>
       </c>
       <c r="F37" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B37,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>0.12500000000000006</v>
+        <v>0.41666666666666702</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -11916,23 +11929,23 @@
       </c>
       <c r="C38" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B38,Jacob!F:F)</f>
-        <v>0.13194444444444453</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
-        <v>0.13194444444444453</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="E38" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B38,Michi!F:F)</f>
-        <v>0.13194444444444453</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="F38" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B38,Sabrina!F:F)</f>
-        <v>0.13194444444444453</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>0.52777777777777812</v>
+        <v>0.98611111111111116</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -12060,23 +12073,23 @@
       </c>
       <c r="C44" s="70">
         <f>SUM(C4:C43)</f>
-        <v>0.17361111111111122</v>
+        <v>0.3715277777777779</v>
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>0.17361111111111122</v>
+        <v>0.3715277777777779</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
-        <v>0.17361111111111122</v>
+        <v>0.3715277777777779</v>
       </c>
       <c r="F44" s="70">
         <f t="shared" ref="F44" si="2">SUM(F4:F43)</f>
-        <v>0.21527777777777785</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>0.7361111111111116</v>
+        <v>1.4861111111111116</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -12145,17 +12158,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
@@ -12201,7 +12214,7 @@
       </c>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.17361111111111122</v>
+        <v>0.3715277777777779</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -12218,7 +12231,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F3" s="55">
-        <f t="shared" ref="F3:F27" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F28" si="0">E3-D3</f>
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
@@ -12241,37 +12254,66 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="A5" s="64">
+        <v>44103</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.4375</v>
+      </c>
       <c r="F5" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="71">
+        <v>44105</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F6" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="57" t="s">
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="71">
+        <v>44110</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F7" s="55">
+        <f t="shared" si="0"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="J7" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="64"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="57"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="64"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -12279,10 +12321,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
-      <c r="C9" s="75"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55">
@@ -12292,6 +12334,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="64"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55">
@@ -12301,7 +12344,6 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="64"/>
-      <c r="C11" s="75"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55">
@@ -12311,6 +12353,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55">
@@ -12458,7 +12501,7 @@
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <f t="shared" ref="F28:F33" si="1">E28-D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12467,7 +12510,7 @@
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F29:F34" si="1">E29-D29</f>
         <v>0</v>
       </c>
     </row>
@@ -12512,7 +12555,7 @@
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f t="shared" ref="F34:F51" si="2">E34-D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12521,7 +12564,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F35:F52" si="2">E35-D35</f>
         <v>0</v>
       </c>
     </row>
@@ -12674,7 +12717,7 @@
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
       <c r="F52" s="55">
-        <f t="shared" ref="F52:F73" si="3">E52-D52</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12683,7 +12726,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F53:F74" si="3">E53-D53</f>
         <v>0</v>
       </c>
     </row>
@@ -12832,6 +12875,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="64"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
       <c r="F70" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12857,13 +12903,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
-        <f t="shared" ref="F74:F107" si="4">E74-D74</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F75:F108" si="4">E75-D75</f>
         <v>0</v>
       </c>
     </row>
@@ -13055,6 +13101,12 @@
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F107" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F108" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13067,17 +13119,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D607740-3075-4F99-B3D6-6E582475898F}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.109375" style="19"/>
     <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="19"/>
@@ -13127,7 +13179,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.17361111111111122</v>
+        <v>0.3715277777777779</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -13146,7 +13198,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F3" s="55">
-        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F67" si="0">E3-D3</f>
         <v>6.9444444444444531E-2</v>
       </c>
       <c r="G3" s="55"/>
@@ -13175,37 +13227,67 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="A5" s="64">
+        <v>44103</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.4375</v>
+      </c>
       <c r="F5" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="71">
+        <v>44105</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F6" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="71">
+        <v>44110</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F7" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11458333333333326</v>
       </c>
       <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="64"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55">
@@ -13245,7 +13327,7 @@
       <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="71"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55">
@@ -13255,7 +13337,7 @@
       <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+      <c r="A13" s="64"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55">
@@ -13265,7 +13347,7 @@
       <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="71"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
@@ -13527,6 +13609,8 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13534,6 +13618,7 @@
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="64"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13717,14 +13802,14 @@
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
-        <f t="shared" ref="F67:F103" si="1">E67-D67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F68:F104" si="1">E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
@@ -13969,6 +14054,12 @@
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13980,17 +14071,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A83429-E426-4DF5-ADF8-C1138D6006D1}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.109375" style="19"/>
     <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="19"/>
@@ -14040,7 +14131,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.17361111111111122</v>
+        <v>0.3715277777777779</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14059,7 +14150,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F3" s="55">
-        <f t="shared" ref="F3:F66" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F67" si="0">E3-D3</f>
         <v>6.9444444444444531E-2</v>
       </c>
       <c r="G3" s="55"/>
@@ -14087,38 +14178,69 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="64">
+        <v>44103</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.4375</v>
+      </c>
       <c r="F5" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G5" s="55"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="71">
+        <v>44105</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F6" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="71">
+        <v>44110</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F7" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11458333333333326</v>
       </c>
       <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="64"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55">
@@ -14158,7 +14280,7 @@
       <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="71"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55">
@@ -14168,7 +14290,7 @@
       <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+      <c r="A13" s="64"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55">
@@ -14178,7 +14300,7 @@
       <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="71"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
@@ -14256,7 +14378,6 @@
         <v>0</v>
       </c>
       <c r="G21" s="55"/>
-      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
@@ -14267,6 +14388,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="55"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
@@ -14440,6 +14562,8 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14447,6 +14571,7 @@
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="64"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14630,14 +14755,14 @@
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
-        <f t="shared" ref="F67:F98" si="1">E67-D67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F68:F99" si="1">E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
@@ -14854,14 +14979,14 @@
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
-        <f t="shared" ref="F99:F102" si="2">E99-D99</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F100:F103" si="2">E100-D100</f>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
@@ -14879,6 +15004,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14887,17 +15019,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.109375" style="19"/>
     <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="19"/>
@@ -14944,7 +15076,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.21527777777777787</v>
+        <v>0.37152777777777779</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -15001,7 +15133,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="55">
-        <f t="shared" ref="F5:F66" si="0">E5-D5</f>
+        <f t="shared" ref="F5:F67" si="0">E5-D5</f>
         <v>6.25E-2</v>
       </c>
       <c r="G5" s="55"/>
@@ -15042,22 +15174,43 @@
       <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="64">
+        <v>44103</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0.4375</v>
+      </c>
       <c r="F8" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="71">
+        <v>44110</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="55">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F9" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11458333333333326</v>
       </c>
       <c r="G9" s="55"/>
     </row>
@@ -15082,7 +15235,7 @@
       <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="71"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55">
@@ -15092,7 +15245,7 @@
       <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+      <c r="A13" s="64"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55">
@@ -15102,7 +15255,7 @@
       <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="71"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
@@ -15180,7 +15333,6 @@
         <v>0</v>
       </c>
       <c r="G21" s="55"/>
-      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
@@ -15191,6 +15343,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="55"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
@@ -15364,6 +15517,8 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15371,6 +15526,7 @@
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="64"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15554,28 +15710,28 @@
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
-        <f t="shared" ref="F67:F68" si="1">E67-D67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F68:F69" si="1">E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
-        <f t="shared" ref="F69:F102" si="2">E69-D69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F70:F103" si="2">E70-D70</f>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
@@ -15803,6 +15959,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D0710-4A88-4524-8D16-A06F28E7F464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828D5DF-B9E1-4468-AC16-E0679F4A87D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2124" windowWidth="17280" windowHeight="9060" tabRatio="415" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2124" windowWidth="17280" windowHeight="9060" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="101">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -347,6 +347,30 @@
   </si>
   <si>
     <t>Userstories, Datenbankstruktur, Prototype</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>Statusupdate schreiben + Vorbereitung</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Mail Kommunikation (Sammel Erfassung)</t>
+  </si>
+  <si>
+    <t>Erstellung Datenmodell</t>
+  </si>
+  <si>
+    <t>Strukturieren &amp; Hochladen</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Überarbeitung</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1169,7 @@
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1330,9 +1354,6 @@
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="20" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
@@ -3030,16 +3051,16 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3715277777777779</c:v>
+                  <c:v>0.78125000000000022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3715277777777779</c:v>
+                  <c:v>0.60416666666666696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3715277777777779</c:v>
+                  <c:v>0.86111111111111127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37152777777777779</c:v>
+                  <c:v>0.55208333333333348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,8 +3924,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Meilensteine" displayName="Meilensteine" ref="B6:J52">
-  <autoFilter ref="B6:J52" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Meilensteine" displayName="Meilensteine" ref="B6:J54">
+  <autoFilter ref="B6:J54" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4203,11 +4224,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO55"/>
+  <dimension ref="A1:BO57"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4269,30 +4290,30 @@
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="87"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="84">
+      <c r="G2" s="81"/>
+      <c r="H2" s="83">
         <v>44097</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="F3" s="81" t="s">
+      <c r="B3" s="86"/>
+      <c r="F3" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="82"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="41">
         <v>0</v>
       </c>
@@ -4382,16 +4403,16 @@
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
       <c r="L4" s="42">
         <f ca="1">IFERROR(Projekt_Start+Scroll_Schrittweite,TODAY())</f>
         <v>44097</v>
@@ -5035,7 +5056,7 @@
       <c r="J8" s="30"/>
       <c r="K8" s="23"/>
       <c r="L8" s="35" t="str">
-        <f t="shared" ref="L8:AA48" ca="1" si="5">IF(AND($E8="Ziel",L$4&gt;=$H8,L$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",L$4&gt;=$H8,L$4&lt;=$H8+$J8-1),1,""))</f>
+        <f t="shared" ref="L8:AA50" ca="1" si="5">IF(AND($E8="Ziel",L$4&gt;=$H8,L$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",L$4&gt;=$H8,L$4&lt;=$H8+$J8-1),1,""))</f>
         <v/>
       </c>
       <c r="M8" s="35" t="str">
@@ -5099,7 +5120,7 @@
         <v/>
       </c>
       <c r="AB8" s="35" t="str">
-        <f t="shared" ref="AB8:AQ48" ca="1" si="6">IF(AND($E8="Ziel",AB$4&gt;=$H8,AB$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",AB$4&gt;=$H8,AB$4&lt;=$H8+$J8-1),1,""))</f>
+        <f t="shared" ref="AB8:AQ50" ca="1" si="6">IF(AND($E8="Ziel",AB$4&gt;=$H8,AB$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",AB$4&gt;=$H8,AB$4&lt;=$H8+$J8-1),1,""))</f>
         <v/>
       </c>
       <c r="AC8" s="35" t="str">
@@ -5131,7 +5152,7 @@
         <v/>
       </c>
       <c r="AJ8" s="35" t="str">
-        <f t="shared" ref="AJ8:AM51" ca="1" si="7">IF(AND($E8="Ziel",AJ$4&gt;=$H8,AJ$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",AJ$4&gt;=$H8,AJ$4&lt;=$H8+$J8-1),1,""))</f>
+        <f t="shared" ref="AJ8:AM53" ca="1" si="7">IF(AND($E8="Ziel",AJ$4&gt;=$H8,AJ$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",AJ$4&gt;=$H8,AJ$4&lt;=$H8+$J8-1),1,""))</f>
         <v/>
       </c>
       <c r="AK8" s="35" t="str">
@@ -5163,7 +5184,7 @@
         <v/>
       </c>
       <c r="AR8" s="35" t="str">
-        <f t="shared" ref="AR8:BG48" ca="1" si="8">IF(AND($E8="Ziel",AR$4&gt;=$H8,AR$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",AR$4&gt;=$H8,AR$4&lt;=$H8+$J8-1),1,""))</f>
+        <f t="shared" ref="AR8:BG50" ca="1" si="8">IF(AND($E8="Ziel",AR$4&gt;=$H8,AR$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",AR$4&gt;=$H8,AR$4&lt;=$H8+$J8-1),1,""))</f>
         <v/>
       </c>
       <c r="AS8" s="35" t="str">
@@ -5227,7 +5248,7 @@
         <v/>
       </c>
       <c r="BH8" s="35" t="str">
-        <f t="shared" ref="BH8:BO48" ca="1" si="9">IF(AND($E8="Ziel",BH$4&gt;=$H8,BH$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",BH$4&gt;=$H8,BH$4&lt;=$H8+$J8-1),1,""))</f>
+        <f t="shared" ref="BH8:BO50" ca="1" si="9">IF(AND($E8="Ziel",BH$4&gt;=$H8,BH$4&lt;=$H8+$J8-1),2,IF(AND($E8="Meilenstein",BH$4&gt;=$H8,BH$4&lt;=$H8+$J8-1),1,""))</f>
         <v/>
       </c>
       <c r="BI8" s="35" t="str">
@@ -5541,7 +5562,7 @@
       </c>
       <c r="K10" s="23"/>
       <c r="L10" s="35" t="str">
-        <f t="shared" ref="L10:AA51" ca="1" si="10">IF(AND($E10="Ziel",L$4&gt;=$H10,L$4&lt;=$H10+$J10-1),2,IF(AND($E10="Meilenstein",L$4&gt;=$H10,L$4&lt;=$H10+$J10-1),1,""))</f>
+        <f t="shared" ref="L10:AA53" ca="1" si="10">IF(AND($E10="Ziel",L$4&gt;=$H10,L$4&lt;=$H10+$J10-1),2,IF(AND($E10="Meilenstein",L$4&gt;=$H10,L$4&lt;=$H10+$J10-1),1,""))</f>
         <v/>
       </c>
       <c r="M10" s="35" t="str">
@@ -6964,9 +6985,9 @@
       <c r="C19" s="68">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D19" s="59" t="str">
+      <c r="D19" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>11</v>
@@ -7946,7 +7967,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="28"/>
@@ -8014,37 +8035,23 @@
     <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="68">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D31" s="59" t="str">
+        <v>99</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="28">
-        <v>0</v>
-      </c>
-      <c r="H31" s="77"/>
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="30">
-        <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
-        <v>0</v>
-      </c>
+      <c r="J31" s="30"/>
       <c r="K31" s="23"/>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
-      <c r="N31" s="35" t="str">
-        <f ca="1">IF(AND($E33="Ziel",N$4&gt;=$H31,N$4&lt;=$H31+$J31-1),2,IF(AND($E33="Meilenstein",N$4&gt;=$H31,N$4&lt;=$H31+$J31-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
@@ -8056,10 +8063,7 @@
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
-      <c r="Z31" s="35" t="str">
-        <f ca="1">IF(AND($E33="Ziel",Z$4&gt;=$H31,Z$4&lt;=$H31+$J31-1),2,IF(AND($E33="Meilenstein",Z$4&gt;=$H31,Z$4&lt;=$H31+$J31-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
@@ -8067,14 +8071,8 @@
       <c r="AE31" s="35"/>
       <c r="AF31" s="35"/>
       <c r="AG31" s="35"/>
-      <c r="AH31" s="35" t="str">
-        <f ca="1">IF(AND($E33="Ziel",AH$4&gt;=$H31,AH$4&lt;=$H31+$J31-1),2,IF(AND($E33="Meilenstein",AH$4&gt;=$H31,AH$4&lt;=$H31+$J31-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI31" s="35" t="str">
-        <f ca="1">IF(AND($E33="Ziel",AI$4&gt;=$H31,AI$4&lt;=$H31+$J31-1),2,IF(AND($E33="Meilenstein",AI$4&gt;=$H31,AI$4&lt;=$H31+$J31-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
       <c r="AL31" s="35"/>
@@ -8083,10 +8081,7 @@
       <c r="AO31" s="35"/>
       <c r="AP31" s="35"/>
       <c r="AQ31" s="35"/>
-      <c r="AR31" s="35" t="str">
-        <f ca="1">IF(AND($E33="Ziel",AR$4&gt;=$H31,AR$4&lt;=$H31+$J31-1),2,IF(AND($E33="Meilenstein",AR$4&gt;=$H31,AR$4&lt;=$H31+$J31-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="AR31" s="35"/>
       <c r="AS31" s="35"/>
       <c r="AT31" s="35"/>
       <c r="AU31" s="35"/>
@@ -8114,10 +8109,10 @@
     <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="79">
-        <v>0.16666666666666666</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="68">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D32" s="59" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
@@ -8141,7 +8136,10 @@
       <c r="K32" s="23"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
+      <c r="N32" s="35" t="str">
+        <f ca="1">IF(AND($E34="Ziel",N$4&gt;=$H32,N$4&lt;=$H32+$J32-1),2,IF(AND($E34="Meilenstein",N$4&gt;=$H32,N$4&lt;=$H32+$J32-1),1,""))</f>
+        <v/>
+      </c>
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -8153,7 +8151,10 @@
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
+      <c r="Z32" s="35" t="str">
+        <f ca="1">IF(AND($E34="Ziel",Z$4&gt;=$H32,Z$4&lt;=$H32+$J32-1),2,IF(AND($E34="Meilenstein",Z$4&gt;=$H32,Z$4&lt;=$H32+$J32-1),1,""))</f>
+        <v/>
+      </c>
       <c r="AA32" s="35"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
@@ -8161,8 +8162,14 @@
       <c r="AE32" s="35"/>
       <c r="AF32" s="35"/>
       <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
+      <c r="AH32" s="35" t="str">
+        <f ca="1">IF(AND($E34="Ziel",AH$4&gt;=$H32,AH$4&lt;=$H32+$J32-1),2,IF(AND($E34="Meilenstein",AH$4&gt;=$H32,AH$4&lt;=$H32+$J32-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AI32" s="35" t="str">
+        <f ca="1">IF(AND($E34="Ziel",AI$4&gt;=$H32,AI$4&lt;=$H32+$J32-1),2,IF(AND($E34="Meilenstein",AI$4&gt;=$H32,AI$4&lt;=$H32+$J32-1),1,""))</f>
+        <v/>
+      </c>
       <c r="AJ32" s="35"/>
       <c r="AK32" s="35"/>
       <c r="AL32" s="35"/>
@@ -8171,7 +8178,10 @@
       <c r="AO32" s="35"/>
       <c r="AP32" s="35"/>
       <c r="AQ32" s="35"/>
-      <c r="AR32" s="35"/>
+      <c r="AR32" s="35" t="str">
+        <f ca="1">IF(AND($E34="Ziel",AR$4&gt;=$H32,AR$4&lt;=$H32+$J32-1),2,IF(AND($E34="Meilenstein",AR$4&gt;=$H32,AR$4&lt;=$H32+$J32-1),1,""))</f>
+        <v/>
+      </c>
       <c r="AS32" s="35"/>
       <c r="AT32" s="35"/>
       <c r="AU32" s="35"/>
@@ -8199,10 +8209,10 @@
     <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="53" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C33" s="79">
-        <v>0.29166666666666669</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D33" s="59" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
@@ -8284,10 +8294,10 @@
     <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="79">
-        <v>0.125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="D34" s="59" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
@@ -8369,10 +8379,10 @@
     <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="79">
-        <v>0.33333333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="D35" s="59" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
@@ -8454,10 +8464,10 @@
     <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="79">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D36" s="59" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
@@ -8539,7 +8549,7 @@
     <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="79">
         <v>0.16666666666666666</v>
@@ -8624,9 +8634,9 @@
     <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="68">
+        <v>87</v>
+      </c>
+      <c r="C38" s="79">
         <v>0.16666666666666666</v>
       </c>
       <c r="D38" s="59" t="str">
@@ -8642,7 +8652,7 @@
       <c r="G38" s="28">
         <v>0</v>
       </c>
-      <c r="H38" s="29"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="29"/>
       <c r="J38" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -8651,10 +8661,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
-      <c r="N38" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="N38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
@@ -8666,10 +8673,7 @@
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
-      <c r="Z38" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="Z38" s="35"/>
       <c r="AA38" s="35"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
@@ -8677,14 +8681,8 @@
       <c r="AE38" s="35"/>
       <c r="AF38" s="35"/>
       <c r="AG38" s="35"/>
-      <c r="AH38" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI38" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
       <c r="AJ38" s="35"/>
       <c r="AK38" s="35"/>
       <c r="AL38" s="35"/>
@@ -8693,10 +8691,7 @@
       <c r="AO38" s="35"/>
       <c r="AP38" s="35"/>
       <c r="AQ38" s="35"/>
-      <c r="AR38" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="AR38" s="35"/>
       <c r="AS38" s="35"/>
       <c r="AT38" s="35"/>
       <c r="AU38" s="35"/>
@@ -8724,10 +8719,10 @@
     <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="53" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C39" s="68">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D39" s="59" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
@@ -8824,10 +8819,10 @@
     <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="53" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C40" s="68">
-        <v>0.29166666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D40" s="59" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
@@ -8866,7 +8861,10 @@
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
+      <c r="Z40" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="AA40" s="35"/>
       <c r="AB40" s="35"/>
       <c r="AC40" s="35"/>
@@ -8878,7 +8876,10 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AI40" s="35"/>
+      <c r="AI40" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
       <c r="AJ40" s="35"/>
       <c r="AK40" s="35"/>
       <c r="AL40" s="35"/>
@@ -8915,272 +8916,113 @@
       <c r="BN40" s="35"/>
       <c r="BO40" s="35"/>
     </row>
-    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="28"/>
+      <c r="B41" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="68">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D41" s="59" t="str">
+        <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="28">
+        <v>0</v>
+      </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
+      <c r="J41" s="30">
+        <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
+        <v>0</v>
+      </c>
       <c r="K41" s="23"/>
-      <c r="L41" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="M41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
       <c r="N41" s="35" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="O41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Z41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AA41" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AB41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
       <c r="AH41" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AI41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ41" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK41" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL41" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM41" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AP41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AQ41" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="35"/>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="35"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
       <c r="AR41" s="35" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="AS41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG41" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BM41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BN41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BO41" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS41" s="35"/>
+      <c r="AT41" s="35"/>
+      <c r="AU41" s="35"/>
+      <c r="AV41" s="35"/>
+      <c r="AW41" s="35"/>
+      <c r="AX41" s="35"/>
+      <c r="AY41" s="35"/>
+      <c r="AZ41" s="35"/>
+      <c r="BA41" s="35"/>
+      <c r="BB41" s="35"/>
+      <c r="BC41" s="35"/>
+      <c r="BD41" s="35"/>
+      <c r="BE41" s="35"/>
+      <c r="BF41" s="35"/>
+      <c r="BG41" s="35"/>
+      <c r="BH41" s="35"/>
+      <c r="BI41" s="35"/>
+      <c r="BJ41" s="35"/>
+      <c r="BK41" s="35"/>
+      <c r="BL41" s="35"/>
+      <c r="BM41" s="35"/>
+      <c r="BN41" s="35"/>
+      <c r="BO41" s="35"/>
+    </row>
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
-      <c r="B42" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="68">
-        <v>0.125</v>
-      </c>
-      <c r="D42" s="59">
-        <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>7.6388888888888881E-2</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="28">
-        <v>0</v>
-      </c>
+      <c r="B42" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="68"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
-      <c r="J42" s="30">
-        <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
-        <v>0</v>
-      </c>
+      <c r="J42" s="30"/>
       <c r="K42" s="23"/>
       <c r="L42" s="35" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -9410,14 +9252,14 @@
     <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="68">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D43" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>6.9444444444444441E-3</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>11</v>
@@ -9435,83 +9277,248 @@
         <v>0</v>
       </c>
       <c r="K43" s="23"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
-      <c r="AF43" s="35"/>
-      <c r="AG43" s="35"/>
+      <c r="L43" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="N43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="O43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="P43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Q43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="R43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="S43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="T43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="U43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="V43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="W43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA43" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AE43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AF43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AG43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
       <c r="AH43" s="35" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AI43" s="35"/>
-      <c r="AJ43" s="35"/>
-      <c r="AK43" s="35"/>
-      <c r="AL43" s="35"/>
-      <c r="AM43" s="35"/>
-      <c r="AN43" s="35"/>
-      <c r="AO43" s="35"/>
-      <c r="AP43" s="35"/>
-      <c r="AQ43" s="35"/>
-      <c r="AR43" s="35"/>
-      <c r="AS43" s="35"/>
-      <c r="AT43" s="35"/>
-      <c r="AU43" s="35"/>
-      <c r="AV43" s="35"/>
-      <c r="AW43" s="35"/>
-      <c r="AX43" s="35"/>
-      <c r="AY43" s="35"/>
-      <c r="AZ43" s="35"/>
-      <c r="BA43" s="35"/>
-      <c r="BB43" s="35"/>
-      <c r="BC43" s="35"/>
-      <c r="BD43" s="35"/>
-      <c r="BE43" s="35"/>
-      <c r="BF43" s="35"/>
-      <c r="BG43" s="35"/>
-      <c r="BH43" s="35"/>
-      <c r="BI43" s="35"/>
-      <c r="BJ43" s="35"/>
-      <c r="BK43" s="35"/>
-      <c r="BL43" s="35"/>
-      <c r="BM43" s="35"/>
-      <c r="BN43" s="35"/>
-      <c r="BO43" s="35"/>
+      <c r="AI43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ43" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK43" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL43" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM43" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AP43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ43" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AR43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AS43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AT43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AU43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AV43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AW43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AX43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AY43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BA43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BB43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BC43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BD43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BE43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BF43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BG43" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BH43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BM43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BN43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BO43" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="68">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D44" s="59" t="str">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D44" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G44" s="28">
         <v>0</v>
@@ -9586,20 +9593,20 @@
     <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="68">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D45" s="59" t="str">
+      <c r="D45" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.10416666666666666</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G45" s="28">
         <v>0</v>
@@ -9633,7 +9640,10 @@
       <c r="AE45" s="35"/>
       <c r="AF45" s="35"/>
       <c r="AG45" s="35"/>
-      <c r="AH45" s="35"/>
+      <c r="AH45" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
       <c r="AI45" s="35"/>
       <c r="AJ45" s="35"/>
       <c r="AK45" s="35"/>
@@ -9671,20 +9681,20 @@
     <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="68">
-        <v>2.0833333333333335</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D46" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.41666666666666702</v>
+        <v>0.15625</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G46" s="28">
         <v>0</v>
@@ -9756,14 +9766,14 @@
     <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="68">
-        <v>1.6666666666666667</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="D47" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.98611111111111116</v>
+        <v>0.75000000000000044</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -9841,14 +9851,14 @@
     <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="68">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D48" s="59" t="str">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D48" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>1.2777777777777781</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>11</v>
@@ -9866,238 +9876,75 @@
         <v>0</v>
       </c>
       <c r="K48" s="23"/>
-      <c r="L48" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="M48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Z48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AA48" s="35" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AB48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ48" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK48" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL48" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM48" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AP48" s="35" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AQ48" s="35" t="str">
-        <f t="shared" ref="AQ48:BF51" ca="1" si="11">IF(AND($E48="Ziel",AQ$4&gt;=$H48,AQ$4&lt;=$H48+$J48-1),2,IF(AND($E48="Meilenstein",AQ$4&gt;=$H48,AQ$4&lt;=$H48+$J48-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AR48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AS48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AT48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AU48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AV48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AW48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AX48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AY48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AZ48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BA48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BB48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BC48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BD48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BE48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF48" s="35" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG48" s="35" t="str">
-        <f t="shared" ref="BG48:BO51" ca="1" si="12">IF(AND($E48="Ziel",BG$4&gt;=$H48,BG$4&lt;=$H48+$J48-1),2,IF(AND($E48="Meilenstein",BG$4&gt;=$H48,BG$4&lt;=$H48+$J48-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BI48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BJ48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BK48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BL48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BM48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BN48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="BO48" s="35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="35"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="35"/>
+      <c r="AP48" s="35"/>
+      <c r="AQ48" s="35"/>
+      <c r="AR48" s="35"/>
+      <c r="AS48" s="35"/>
+      <c r="AT48" s="35"/>
+      <c r="AU48" s="35"/>
+      <c r="AV48" s="35"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="35"/>
+      <c r="AY48" s="35"/>
+      <c r="AZ48" s="35"/>
+      <c r="BA48" s="35"/>
+      <c r="BB48" s="35"/>
+      <c r="BC48" s="35"/>
+      <c r="BD48" s="35"/>
+      <c r="BE48" s="35"/>
+      <c r="BF48" s="35"/>
+      <c r="BG48" s="35"/>
+      <c r="BH48" s="35"/>
+      <c r="BI48" s="35"/>
+      <c r="BJ48" s="35"/>
+      <c r="BK48" s="35"/>
+      <c r="BL48" s="35"/>
+      <c r="BM48" s="35"/>
+      <c r="BN48" s="35"/>
+      <c r="BO48" s="35"/>
+    </row>
+    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
-      <c r="B49" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="79">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D49" s="59" t="str">
+        <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
+        <v/>
+      </c>
       <c r="E49" s="31"/>
       <c r="F49" s="31"/>
       <c r="G49" s="28"/>
@@ -10165,20 +10012,18 @@
     <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="68">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D50" s="59" t="str">
+        <v>95</v>
+      </c>
+      <c r="C50" s="79"/>
+      <c r="D50" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.18055555555555558</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G50" s="28">
         <v>0</v>
@@ -10190,343 +10035,329 @@
         <v>0</v>
       </c>
       <c r="K50" s="23"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="35"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
-      <c r="AH50" s="35"/>
-      <c r="AI50" s="35"/>
-      <c r="AJ50" s="35"/>
-      <c r="AK50" s="35"/>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="35"/>
-      <c r="AN50" s="35"/>
-      <c r="AO50" s="35"/>
-      <c r="AP50" s="35"/>
-      <c r="AQ50" s="35"/>
-      <c r="AR50" s="35"/>
-      <c r="AS50" s="35"/>
-      <c r="AT50" s="35"/>
-      <c r="AU50" s="35"/>
-      <c r="AV50" s="35"/>
-      <c r="AW50" s="35"/>
-      <c r="AX50" s="35"/>
-      <c r="AY50" s="35"/>
-      <c r="AZ50" s="35"/>
-      <c r="BA50" s="35"/>
-      <c r="BB50" s="35"/>
-      <c r="BC50" s="35"/>
-      <c r="BD50" s="35"/>
-      <c r="BE50" s="35"/>
-      <c r="BF50" s="35"/>
-      <c r="BG50" s="35"/>
-      <c r="BH50" s="35"/>
-      <c r="BI50" s="35"/>
-      <c r="BJ50" s="35"/>
-      <c r="BK50" s="35"/>
-      <c r="BL50" s="35"/>
-      <c r="BM50" s="35"/>
-      <c r="BN50" s="35"/>
-      <c r="BO50" s="35"/>
-    </row>
-    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="N50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="O50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="P50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Q50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="R50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="S50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="T50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="U50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="V50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="W50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA50" s="35" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AC50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AD50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AE50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AF50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AG50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AH50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AI50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ50" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK50" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL50" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM50" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AP50" s="35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ50" s="35" t="str">
+        <f t="shared" ref="AQ50:BF53" ca="1" si="11">IF(AND($E50="Ziel",AQ$4&gt;=$H50,AQ$4&lt;=$H50+$J50-1),2,IF(AND($E50="Meilenstein",AQ$4&gt;=$H50,AQ$4&lt;=$H50+$J50-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AR50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AS50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AT50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AU50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AV50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AW50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AX50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AY50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BA50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BB50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BC50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BD50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BE50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BF50" s="35" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BG50" s="35" t="str">
+        <f t="shared" ref="BG50:BO53" ca="1" si="12">IF(AND($E50="Ziel",BG$4&gt;=$H50,BG$4&lt;=$H50+$J50-1),2,IF(AND($E50="Meilenstein",BG$4&gt;=$H50,BG$4&lt;=$H50+$J50-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BI50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BJ50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BK50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BL50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BM50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BN50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="BO50" s="35" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
-      <c r="B51" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="68">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D51" s="59" t="str">
-        <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" s="28">
-        <v>0</v>
-      </c>
+      <c r="B51" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="63"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="30">
-        <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
-        <v>0</v>
-      </c>
+      <c r="J51" s="30"/>
       <c r="K51" s="23"/>
-      <c r="L51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="M51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="N51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="O51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="P51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Q51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="R51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="S51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="T51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="U51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="V51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="W51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="X51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Y51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="Z51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AA51" s="35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AB51" s="35" t="str">
-        <f t="shared" ref="AB51:AP51" ca="1" si="13">IF(AND($E51="Ziel",AB$4&gt;=$H51,AB$4&lt;=$H51+$J51-1),2,IF(AND($E51="Meilenstein",AB$4&gt;=$H51,AB$4&lt;=$H51+$J51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AD51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AE51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AF51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AG51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AH51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AI51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AJ51" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AK51" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AL51" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AM51" s="35" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AN51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AO51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AP51" s="35" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AQ51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AR51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AS51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AT51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AU51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AV51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AW51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AX51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AY51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BA51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BB51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BC51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BD51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF51" s="35" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BH51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BI51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BJ51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BK51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BL51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BM51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BN51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="BO51" s="35" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="35"/>
+      <c r="AQ51" s="35"/>
+      <c r="AR51" s="35"/>
+      <c r="AS51" s="35"/>
+      <c r="AT51" s="35"/>
+      <c r="AU51" s="35"/>
+      <c r="AV51" s="35"/>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="35"/>
+      <c r="AY51" s="35"/>
+      <c r="AZ51" s="35"/>
+      <c r="BA51" s="35"/>
+      <c r="BB51" s="35"/>
+      <c r="BC51" s="35"/>
+      <c r="BD51" s="35"/>
+      <c r="BE51" s="35"/>
+      <c r="BF51" s="35"/>
+      <c r="BG51" s="35"/>
+      <c r="BH51" s="35"/>
+      <c r="BI51" s="35"/>
+      <c r="BJ51" s="35"/>
+      <c r="BK51" s="35"/>
+      <c r="BL51" s="35"/>
+      <c r="BM51" s="35"/>
+      <c r="BN51" s="35"/>
+      <c r="BO51" s="35"/>
     </row>
     <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
-      <c r="B52" s="66" t="s">
-        <v>36</v>
+      <c r="B52" s="53" t="s">
+        <v>66</v>
       </c>
       <c r="C52" s="68">
-        <f>SUM(C9:C51)</f>
-        <v>14.416666666666664</v>
-      </c>
-      <c r="D52" s="68">
-        <f>SUM(D8:D51)</f>
-        <v>1.4861111111111116</v>
-      </c>
-      <c r="E52" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="31" t="str">
-        <f>IF(D52=Übersicht!G44,"OK","FEHLER")</f>
-        <v>OK</v>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D52" s="59" t="str">
+        <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="G52" s="28">
-        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.10308285163776498</v>
+        <v>0</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="30"/>
+      <c r="J52" s="30">
+        <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
+        <v>0</v>
+      </c>
       <c r="K52" s="23"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
@@ -10586,152 +10417,490 @@
       <c r="BO52" s="35"/>
     </row>
     <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="68">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D53" s="59" t="str">
+        <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="28">
+        <v>0</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30">
+        <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="23"/>
+      <c r="L53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Z53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AA53" s="35" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AB53" s="35" t="str">
+        <f t="shared" ref="AB53:AP53" ca="1" si="13">IF(AND($E53="Ziel",AB$4&gt;=$H53,AB$4&lt;=$H53+$J53-1),2,IF(AND($E53="Meilenstein",AB$4&gt;=$H53,AB$4&lt;=$H53+$J53-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AC53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AF53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AG53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AH53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AI53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AJ53" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AK53" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AL53" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AM53" s="35" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AN53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AO53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AP53" s="35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AQ53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AS53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AT53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AU53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AV53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AW53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AX53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AY53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BA53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BB53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BC53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BD53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BE53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BF53" s="35" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="BG53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BH53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BI53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BK53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BL53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BM53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BN53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BO53" s="35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="68">
+        <f>SUM(C9:C53)</f>
+        <v>14.416666666666664</v>
+      </c>
+      <c r="D54" s="68">
+        <f>SUM(D8:D53)</f>
+        <v>2.7986111111111116</v>
+      </c>
+      <c r="E54" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="31" t="str">
+        <f>IF(D54=Übersicht!G44,"OK","FEHLER")</f>
+        <v>OK</v>
+      </c>
+      <c r="G54" s="28">
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.19412331406551067</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
+      <c r="AF54" s="35"/>
+      <c r="AG54" s="35"/>
+      <c r="AH54" s="35"/>
+      <c r="AI54" s="35"/>
+      <c r="AJ54" s="35"/>
+      <c r="AK54" s="35"/>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="35"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="35"/>
+      <c r="AP54" s="35"/>
+      <c r="AQ54" s="35"/>
+      <c r="AR54" s="35"/>
+      <c r="AS54" s="35"/>
+      <c r="AT54" s="35"/>
+      <c r="AU54" s="35"/>
+      <c r="AV54" s="35"/>
+      <c r="AW54" s="35"/>
+      <c r="AX54" s="35"/>
+      <c r="AY54" s="35"/>
+      <c r="AZ54" s="35"/>
+      <c r="BA54" s="35"/>
+      <c r="BB54" s="35"/>
+      <c r="BC54" s="35"/>
+      <c r="BD54" s="35"/>
+      <c r="BE54" s="35"/>
+      <c r="BF54" s="35"/>
+      <c r="BG54" s="35"/>
+      <c r="BH54" s="35"/>
+      <c r="BI54" s="35"/>
+      <c r="BJ54" s="35"/>
+      <c r="BK54" s="35"/>
+      <c r="BL54" s="35"/>
+      <c r="BM54" s="35"/>
+      <c r="BN54" s="35"/>
+      <c r="BO54" s="35"/>
+    </row>
+    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B55" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="35"/>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="35"/>
-      <c r="AQ53" s="35"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35"/>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35"/>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="35"/>
-      <c r="BA53" s="35"/>
-      <c r="BB53" s="35"/>
-      <c r="BC53" s="35"/>
-      <c r="BD53" s="35"/>
-      <c r="BE53" s="35"/>
-      <c r="BF53" s="35"/>
-      <c r="BG53" s="35"/>
-      <c r="BH53" s="35"/>
-      <c r="BI53" s="35"/>
-      <c r="BJ53" s="35"/>
-      <c r="BK53" s="35"/>
-      <c r="BL53" s="35"/>
-      <c r="BM53" s="35"/>
-      <c r="BN53" s="35"/>
-      <c r="BO53" s="35"/>
-    </row>
-    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="35"/>
+      <c r="AQ55" s="35"/>
+      <c r="AR55" s="35"/>
+      <c r="AS55" s="35"/>
+      <c r="AT55" s="35"/>
+      <c r="AU55" s="35"/>
+      <c r="AV55" s="35"/>
+      <c r="AW55" s="35"/>
+      <c r="AX55" s="35"/>
+      <c r="AY55" s="35"/>
+      <c r="AZ55" s="35"/>
+      <c r="BA55" s="35"/>
+      <c r="BB55" s="35"/>
+      <c r="BC55" s="35"/>
+      <c r="BD55" s="35"/>
+      <c r="BE55" s="35"/>
+      <c r="BF55" s="35"/>
+      <c r="BG55" s="35"/>
+      <c r="BH55" s="35"/>
+      <c r="BI55" s="35"/>
+      <c r="BJ55" s="35"/>
+      <c r="BK55" s="35"/>
+      <c r="BL55" s="35"/>
+      <c r="BM55" s="35"/>
+      <c r="BN55" s="35"/>
+      <c r="BO55" s="35"/>
+    </row>
+    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B54"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="5"/>
-      <c r="G54"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="34"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="34"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="34"/>
-      <c r="AS54" s="34"/>
-      <c r="AT54" s="34"/>
-      <c r="AU54" s="34"/>
-      <c r="AV54" s="34"/>
-      <c r="AW54" s="34"/>
-      <c r="AX54" s="34"/>
-      <c r="AY54" s="34"/>
-      <c r="AZ54" s="34"/>
-      <c r="BA54" s="34"/>
-      <c r="BB54" s="34"/>
-      <c r="BC54" s="34"/>
-      <c r="BD54" s="34"/>
-      <c r="BE54" s="34"/>
-      <c r="BF54" s="34"/>
-      <c r="BG54" s="34"/>
-      <c r="BH54" s="34"/>
-      <c r="BI54" s="34"/>
-      <c r="BJ54" s="34"/>
-      <c r="BK54" s="34"/>
-      <c r="BL54" s="34"/>
-      <c r="BM54" s="34"/>
-      <c r="BN54" s="34"/>
-      <c r="BO54" s="34"/>
-    </row>
-    <row r="55" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="6"/>
-      <c r="K55" s="4"/>
+      <c r="B56"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="5"/>
+      <c r="G56"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+      <c r="AD56" s="34"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="34"/>
+      <c r="AH56" s="34"/>
+      <c r="AI56" s="34"/>
+      <c r="AJ56" s="34"/>
+      <c r="AK56" s="34"/>
+      <c r="AL56" s="34"/>
+      <c r="AM56" s="34"/>
+      <c r="AN56" s="34"/>
+      <c r="AO56" s="34"/>
+      <c r="AP56" s="34"/>
+      <c r="AQ56" s="34"/>
+      <c r="AR56" s="34"/>
+      <c r="AS56" s="34"/>
+      <c r="AT56" s="34"/>
+      <c r="AU56" s="34"/>
+      <c r="AV56" s="34"/>
+      <c r="AW56" s="34"/>
+      <c r="AX56" s="34"/>
+      <c r="AY56" s="34"/>
+      <c r="AZ56" s="34"/>
+      <c r="BA56" s="34"/>
+      <c r="BB56" s="34"/>
+      <c r="BC56" s="34"/>
+      <c r="BD56" s="34"/>
+      <c r="BE56" s="34"/>
+      <c r="BF56" s="34"/>
+      <c r="BG56" s="34"/>
+      <c r="BH56" s="34"/>
+      <c r="BI56" s="34"/>
+      <c r="BJ56" s="34"/>
+      <c r="BK56" s="34"/>
+      <c r="BL56" s="34"/>
+      <c r="BM56" s="34"/>
+      <c r="BN56" s="34"/>
+      <c r="BO56" s="34"/>
+    </row>
+    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="6"/>
+      <c r="K57" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10741,8 +10910,8 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G52">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="G6:G49 G51:G54">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10755,175 +10924,189 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:BO54">
-    <cfRule type="expression" dxfId="53" priority="3">
+  <conditionalFormatting sqref="L4:BO56">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>AND(TODAY()&gt;=L$4,TODAY()&lt;M$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:AP3">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="52" priority="10">
       <formula>L$4&lt;=EOMONTH($L$4,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BO3">
-    <cfRule type="expression" dxfId="51" priority="5">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(M$4&lt;=EOMONTH($L$4,2),M$4&gt;EOMONTH($L$4,0),M$4&gt;EOMONTH($L$4,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:BO3">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>AND(L$4&lt;=EOMONTH($L$4,1),L$4&gt;EOMONTH($L$4,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:BO20 L25:BO30 L34:BO51">
-    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
+  <conditionalFormatting sqref="L7:BO20 L25:BO31 L35:BO53">
+    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
       <formula>AND($E7="Geringes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
       <formula>AND($E7="Hohes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
       <formula>AND($E7="Im Plan",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="65" stopIfTrue="1">
       <formula>AND($E7="Mittleres Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
       <formula>AND(LEN($E7)=0,L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54:BO54">
-    <cfRule type="expression" dxfId="44" priority="73" stopIfTrue="1">
+  <conditionalFormatting sqref="L56:BO56">
+    <cfRule type="expression" dxfId="44" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="75" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="76" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="77" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="78" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",E54)))</formula>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="FEHLER">
-      <formula>NOT(ISERROR(SEARCH("FEHLER",E54)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="FEHLER">
+      <formula>NOT(ISERROR(SEARCH("FEHLER",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53:BO53">
-    <cfRule type="expression" dxfId="37" priority="246" stopIfTrue="1">
+  <conditionalFormatting sqref="L55:BO55">
+    <cfRule type="expression" dxfId="37" priority="247" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="248" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="249" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="250" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="251" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:BO24">
-    <cfRule type="expression" dxfId="32" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="288" stopIfTrue="1">
       <formula>AND($E24="Geringes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="289" stopIfTrue="1">
       <formula>AND($E24="Hohes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="290" stopIfTrue="1">
       <formula>AND($E24="Im Plan",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="291" stopIfTrue="1">
       <formula>AND($E24="Mittleres Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="292" stopIfTrue="1">
       <formula>AND(LEN($E24)=0,L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO23">
-    <cfRule type="expression" dxfId="27" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="352" stopIfTrue="1">
       <formula>AND($E21="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="353" stopIfTrue="1">
       <formula>AND($E21="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="354" stopIfTrue="1">
       <formula>AND($E21="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="355" stopIfTrue="1">
       <formula>AND($E21="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="356" stopIfTrue="1">
       <formula>AND(LEN($E21)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52:BO52">
-    <cfRule type="expression" dxfId="22" priority="406" stopIfTrue="1">
+  <conditionalFormatting sqref="L54:BO54">
+    <cfRule type="expression" dxfId="22" priority="407" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="408" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="409" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="410" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="411" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:BO32">
-    <cfRule type="expression" dxfId="17" priority="417" stopIfTrue="1">
-      <formula>AND($E33="Geringes Risiko",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
+  <conditionalFormatting sqref="L32:BO33">
+    <cfRule type="expression" dxfId="17" priority="418" stopIfTrue="1">
+      <formula>AND($E34="Geringes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="418" stopIfTrue="1">
-      <formula>AND($E33="Hohes Risiko",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
+    <cfRule type="expression" dxfId="16" priority="419" stopIfTrue="1">
+      <formula>AND($E34="Hohes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="419" stopIfTrue="1">
-      <formula>AND($E33="Im Plan",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
+    <cfRule type="expression" dxfId="15" priority="420" stopIfTrue="1">
+      <formula>AND($E34="Im Plan",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="420" stopIfTrue="1">
-      <formula>AND($E33="Mittleres Risiko",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
+    <cfRule type="expression" dxfId="14" priority="421" stopIfTrue="1">
+      <formula>AND($E34="Mittleres Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="421" stopIfTrue="1">
-      <formula>AND(LEN($E33)=0,L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
+    <cfRule type="expression" dxfId="13" priority="422" stopIfTrue="1">
+      <formula>AND(LEN($E34)=0,L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:BO33">
-    <cfRule type="expression" dxfId="12" priority="422" stopIfTrue="1">
-      <formula>AND(#REF!="Geringes Risiko",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
+  <conditionalFormatting sqref="L34:BO34">
+    <cfRule type="expression" dxfId="12" priority="423" stopIfTrue="1">
+      <formula>AND(#REF!="Geringes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="423" stopIfTrue="1">
-      <formula>AND(#REF!="Hohes Risiko",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
+    <cfRule type="expression" dxfId="11" priority="424" stopIfTrue="1">
+      <formula>AND(#REF!="Hohes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="424" stopIfTrue="1">
-      <formula>AND(#REF!="Im Plan",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
+    <cfRule type="expression" dxfId="10" priority="425" stopIfTrue="1">
+      <formula>AND(#REF!="Im Plan",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="425" stopIfTrue="1">
-      <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
+    <cfRule type="expression" dxfId="9" priority="426" stopIfTrue="1">
+      <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="426" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
+    <cfRule type="expression" dxfId="8" priority="427" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCDF6180-781D-41D4-9F20-293570D1F4B2}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="H3:I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E52" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E54" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Ziel,Meilenstein,Im Plan, Geringes Risiko, Mittleres Risiko, Hohes Risiko"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -10985,10 +11168,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G6:G52</xm:sqref>
+          <xm:sqref>G6:G49 G51:G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="72" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="73" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11004,10 +11187,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L54:BO54</xm:sqref>
+          <xm:sqref>L56:BO56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="411" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="412" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -11023,7 +11206,22 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>L7:BO53</xm:sqref>
+          <xm:sqref>L7:BO55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCDF6180-781D-41D4-9F20-293570D1F4B2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11036,8 +11234,8 @@
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11312,7 +11510,7 @@
       </c>
       <c r="E13" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B13,Michi!F:F)</f>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="F13" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B13,Sabrina!F:F)</f>
@@ -11320,7 +11518,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -11816,11 +12014,11 @@
       </c>
       <c r="F33" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B33,Sabrina!F:F)</f>
-        <v>7.6388888888888881E-2</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="G33" s="67">
         <f t="shared" si="0"/>
-        <v>7.6388888888888881E-2</v>
+        <v>0.10069444444444443</v>
       </c>
     </row>
     <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -11854,7 +12052,7 @@
       </c>
       <c r="C35" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B35,Jacob!F:F)</f>
-        <v>0</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B35,Roman!F:F)</f>
@@ -11870,7 +12068,7 @@
       </c>
       <c r="G35" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -11887,7 +12085,7 @@
       </c>
       <c r="E36" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B36,Michi!F:F)</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="F36" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B36,Sabrina!F:F)</f>
@@ -11895,7 +12093,7 @@
       </c>
       <c r="G36" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -11904,23 +12102,23 @@
       </c>
       <c r="C37" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B37,Jacob!F:F)</f>
-        <v>0.12500000000000011</v>
+        <v>0.20833333333333348</v>
       </c>
       <c r="D37" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B37,Roman!F:F)</f>
-        <v>0.12500000000000011</v>
+        <v>0.20833333333333348</v>
       </c>
       <c r="E37" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B37,Michi!F:F)</f>
-        <v>0.12500000000000011</v>
+        <v>0.20833333333333348</v>
       </c>
       <c r="F37" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B37,Sabrina!F:F)</f>
-        <v>4.1666666666666685E-2</v>
+        <v>0.12500000000000006</v>
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>0.41666666666666702</v>
+        <v>0.75000000000000044</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -11929,23 +12127,23 @@
       </c>
       <c r="C38" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B38,Jacob!F:F)</f>
-        <v>0.24652777777777779</v>
+        <v>0.31944444444444453</v>
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
-        <v>0.24652777777777779</v>
+        <v>0.31944444444444453</v>
       </c>
       <c r="E38" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B38,Michi!F:F)</f>
-        <v>0.24652777777777779</v>
+        <v>0.31944444444444453</v>
       </c>
       <c r="F38" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B38,Sabrina!F:F)</f>
-        <v>0.24652777777777779</v>
+        <v>0.31944444444444453</v>
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>0.98611111111111116</v>
+        <v>1.2777777777777781</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -12024,17 +12222,20 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
       <c r="C42" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B42,Jacob!F:F)</f>
         <v>0</v>
       </c>
       <c r="D42" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B42,Roman!F:F)</f>
-        <v>0</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="E42" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B42,Michi!F:F)</f>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="F42" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B42,Sabrina!F:F)</f>
@@ -12042,13 +12243,16 @@
       </c>
       <c r="G42" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18055555555555558</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
       <c r="C43" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B43,Jacob!F:F)</f>
-        <v>0</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="D43" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B43,Roman!F:F)</f>
@@ -12064,7 +12268,7 @@
       </c>
       <c r="G43" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14930555555555555</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
@@ -12073,23 +12277,23 @@
       </c>
       <c r="C44" s="70">
         <f>SUM(C4:C43)</f>
-        <v>0.3715277777777779</v>
+        <v>0.78125000000000022</v>
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>0.3715277777777779</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
-        <v>0.3715277777777779</v>
+        <v>0.86111111111111127</v>
       </c>
       <c r="F44" s="70">
         <f t="shared" ref="F44" si="2">SUM(F4:F43)</f>
-        <v>0.37152777777777779</v>
+        <v>0.55208333333333348</v>
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>1.4861111111111116</v>
+        <v>2.798611111111112</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -12158,10 +12362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12214,218 +12418,312 @@
       </c>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.3715277777777779</v>
+        <v>0.78125000000000022</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="71">
+      <c r="A3" s="64">
+        <v>44097</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="71">
         <v>44100</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="55">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="E3" s="55">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="F3" s="55">
-        <f t="shared" ref="F3:F28" si="0">E3-D3</f>
-        <v>6.9444444444444531E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="64">
-        <v>44101</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="55">
-        <v>0.66666666666666663</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E4" s="55">
-        <v>0.72916666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F4" s="55">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f t="shared" ref="F4:F36" si="0">E4-D4</f>
+        <v>6.9444444444444531E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
+        <v>44101</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F5" s="55">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="64">
         <v>44103</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="55">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E5" s="55">
-        <v>0.4375</v>
-      </c>
-      <c r="F5" s="55">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
-        <v>44105</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="55">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.4375</v>
+      </c>
+      <c r="F6" s="55">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="64">
+        <v>44103</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="71">
+        <v>44105</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="55">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E8" s="55">
         <v>0.57638888888888895</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F8" s="55">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="71">
-        <v>44110</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="55">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="E7" s="55">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F7" s="55">
-        <f t="shared" si="0"/>
-        <v>0.11458333333333326</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="57"/>
-    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="71">
+        <v>44105</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="C10" s="75"/>
+      <c r="A10" s="71">
+        <v>44107</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="71">
+        <v>44110</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F11" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="71">
+        <v>44112</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F12" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="71">
+        <v>44112</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="71">
+        <v>44113</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="A15" s="71">
+        <v>44115</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F15" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="71">
+        <v>44116</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F16" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+      <c r="A17" s="71">
+        <v>44116</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
+      <c r="A18" s="71">
+        <v>44121</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+      <c r="A19" s="71">
+        <v>44123</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F19" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55">
@@ -12510,7 +12808,7 @@
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f t="shared" ref="F29:F34" si="1">E29-D29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12519,7 +12817,7 @@
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12528,7 +12826,7 @@
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12537,7 +12835,7 @@
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12546,7 +12844,7 @@
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12555,7 +12853,7 @@
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12564,7 +12862,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f t="shared" ref="F35:F52" si="2">E35-D35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12573,7 +12871,7 @@
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12582,7 +12880,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F37:F42" si="1">E37-D37</f>
         <v>0</v>
       </c>
     </row>
@@ -12591,7 +12889,7 @@
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12600,7 +12898,7 @@
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12609,7 +12907,7 @@
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12618,7 +12916,7 @@
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12627,7 +12925,7 @@
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12636,7 +12934,7 @@
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F43:F60" si="2">E43-D43</f>
         <v>0</v>
       </c>
     </row>
@@ -12726,7 +13024,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="55">
-        <f t="shared" ref="F53:F74" si="3">E53-D53</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12735,7 +13033,7 @@
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12744,7 +13042,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12753,7 +13051,7 @@
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="F56" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12762,7 +13060,7 @@
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="F57" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12771,7 +13069,7 @@
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12780,7 +13078,7 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12789,7 +13087,7 @@
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
       <c r="F60" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12798,7 +13096,7 @@
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F61:F82" si="3">E61-D61</f>
         <v>0</v>
       </c>
     </row>
@@ -12884,80 +13182,104 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="64"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="64"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
       <c r="F72" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="64"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
       <c r="F73" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="64"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
       <c r="F74" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="64"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
       <c r="F75" s="55">
-        <f t="shared" ref="F75:F108" si="4">E75-D75</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="64"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
       <c r="F76" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="64"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
       <c r="F77" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="64"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
       <c r="F78" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F83:F116" si="4">E83-D83</f>
         <v>0</v>
       </c>
     </row>
@@ -13107,6 +13429,54 @@
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F108" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F109" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F110" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F111" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F112" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F113" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F114" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F115" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F116" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13119,10 +13489,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D607740-3075-4F99-B3D6-6E582475898F}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13179,7 +13549,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.3715277777777779</v>
+        <v>0.60416666666666685</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -13198,7 +13568,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F3" s="55">
-        <f t="shared" ref="F3:F67" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F68" si="0">E3-D3</f>
         <v>6.9444444444444531E-2</v>
       </c>
       <c r="G3" s="55"/>
@@ -13287,67 +13657,117 @@
       <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="71">
+        <v>44110</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="71">
+        <v>44112</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F9" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="71">
+        <v>44115</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F10" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="71">
+        <v>44116</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F11" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="A12" s="71">
+        <v>44123</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F12" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="71">
+        <v>44123</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
+      <c r="A14" s="64"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
@@ -13357,7 +13777,7 @@
       <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="71"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55">
@@ -13425,7 +13845,6 @@
         <v>0</v>
       </c>
       <c r="G21" s="55"/>
-      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
@@ -13436,6 +13855,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="55"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
@@ -13619,6 +14039,8 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13626,6 +14048,7 @@
       <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="64"/>
       <c r="F42" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13809,14 +14232,14 @@
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
-        <f t="shared" ref="F68:F104" si="1">E68-D68</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F69:F105" si="1">E69-D69</f>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
@@ -14057,9 +14480,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G103" s="55"/>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -14071,10 +14501,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A83429-E426-4DF5-ADF8-C1138D6006D1}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14131,7 +14561,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.3715277777777779</v>
+        <v>0.86111111111111138</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14150,7 +14580,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F3" s="55">
-        <f t="shared" ref="F3:F67" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F6" si="0">E3-D3</f>
         <v>6.9444444444444531E-2</v>
       </c>
       <c r="G3" s="55"/>
@@ -14179,202 +14609,300 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64">
-        <v>44103</v>
+      <c r="A5" s="71">
+        <v>44102</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="55">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E5" s="55">
-        <v>0.4375</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="55">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G5" s="55"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
-        <v>44105</v>
+    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="64">
+        <v>44103</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="55">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.4375</v>
+      </c>
+      <c r="F6" s="55">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="64">
+        <v>44104</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="71">
+        <v>44105</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="55">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E8" s="55">
         <v>0.57638888888888895</v>
       </c>
-      <c r="F6" s="55">
-        <f t="shared" si="0"/>
+      <c r="F8" s="55">
+        <f>E8-D8</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="71">
+      <c r="G8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="71">
         <v>44110</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D9" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E9" s="55">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F7" s="55">
-        <f t="shared" si="0"/>
+      <c r="F9" s="55">
+        <f>E9-D9</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
+      <c r="A10" s="71">
+        <v>44110</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
+      <c r="A11" s="71">
+        <v>44081</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="A12" s="71">
+        <v>44112</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F12" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E12-D12</f>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="71">
+        <v>44115</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F13" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E13-D13</f>
+        <v>6.25E-2</v>
       </c>
       <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
+      <c r="A14" s="71">
+        <v>44115</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="71">
+        <v>44116</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="71">
+        <v>44116</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F16" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E16-D16</f>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="A17" s="71">
+        <v>44123</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F17" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E17-D17</f>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
+      <c r="A18" s="71">
+        <v>44123</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+      <c r="A19" s="71">
+        <v>44124</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
+      <c r="A20" s="64">
+        <v>44124</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
+      <c r="A21" s="71"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55">
-        <f t="shared" si="0"/>
+        <f>E21-D21</f>
         <v>0</v>
       </c>
       <c r="G21" s="55"/>
@@ -14384,18 +14912,17 @@
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55">
-        <f t="shared" si="0"/>
+        <f>E22-D22</f>
         <v>0</v>
       </c>
       <c r="G22" s="55"/>
-      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55">
-        <f t="shared" si="0"/>
+        <f>E23-D23</f>
         <v>0</v>
       </c>
       <c r="G23" s="55"/>
@@ -14405,7 +14932,7 @@
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55">
-        <f t="shared" si="0"/>
+        <f>E24-D24</f>
         <v>0</v>
       </c>
       <c r="G24" s="55"/>
@@ -14415,7 +14942,7 @@
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55">
-        <f t="shared" si="0"/>
+        <f>E25-D25</f>
         <v>0</v>
       </c>
       <c r="G25" s="55"/>
@@ -14425,7 +14952,7 @@
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55">
-        <f t="shared" si="0"/>
+        <f>E26-D26</f>
         <v>0</v>
       </c>
       <c r="G26" s="55"/>
@@ -14435,7 +14962,7 @@
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <f t="shared" si="0"/>
+        <f>E27-D27</f>
         <v>0</v>
       </c>
       <c r="G27" s="55"/>
@@ -14445,17 +14972,18 @@
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <f t="shared" si="0"/>
+        <f>E28-D28</f>
         <v>0</v>
       </c>
       <c r="G28" s="55"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f t="shared" si="0"/>
+        <f>E29-D29</f>
         <v>0</v>
       </c>
       <c r="G29" s="55"/>
@@ -14465,7 +14993,7 @@
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55">
-        <f t="shared" si="0"/>
+        <f>E30-D30</f>
         <v>0</v>
       </c>
       <c r="G30" s="55"/>
@@ -14475,7 +15003,7 @@
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <f t="shared" si="0"/>
+        <f>E31-D31</f>
         <v>0</v>
       </c>
       <c r="G31" s="55"/>
@@ -14485,7 +15013,7 @@
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55">
-        <f t="shared" si="0"/>
+        <f>E32-D32</f>
         <v>0</v>
       </c>
       <c r="G32" s="55"/>
@@ -14495,7 +15023,7 @@
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <f t="shared" si="0"/>
+        <f>E33-D33</f>
         <v>0</v>
       </c>
       <c r="G33" s="55"/>
@@ -14505,7 +15033,7 @@
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f t="shared" si="0"/>
+        <f>E34-D34</f>
         <v>0</v>
       </c>
       <c r="G34" s="55"/>
@@ -14515,7 +15043,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f t="shared" si="0"/>
+        <f>E35-D35</f>
         <v>0</v>
       </c>
       <c r="G35" s="55"/>
@@ -14525,7 +15053,7 @@
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <f t="shared" si="0"/>
+        <f>E36-D36</f>
         <v>0</v>
       </c>
       <c r="G36" s="55"/>
@@ -14535,7 +15063,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f t="shared" si="0"/>
+        <f>E37-D37</f>
         <v>0</v>
       </c>
       <c r="G37" s="55"/>
@@ -14545,7 +15073,7 @@
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f t="shared" si="0"/>
+        <f>E38-D38</f>
         <v>0</v>
       </c>
       <c r="G38" s="55"/>
@@ -14555,7 +15083,7 @@
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55">
-        <f t="shared" si="0"/>
+        <f>E39-D39</f>
         <v>0</v>
       </c>
       <c r="G39" s="55"/>
@@ -14565,253 +15093,274 @@
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55">
-        <f t="shared" si="0"/>
+        <f>E40-D40</f>
         <v>0</v>
       </c>
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="55">
-        <f t="shared" si="0"/>
+        <f>E41-D41</f>
         <v>0</v>
       </c>
       <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="64"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="55">
-        <f t="shared" si="0"/>
+        <f>E42-D42</f>
         <v>0</v>
       </c>
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="64"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="55">
-        <f t="shared" si="0"/>
+        <f>E43-D43</f>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="64"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
       <c r="F44" s="55">
-        <f t="shared" si="0"/>
+        <f>E44-D44</f>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="64"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="55">
-        <f t="shared" si="0"/>
+        <f>E45-D45</f>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="64"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="55">
-        <f t="shared" si="0"/>
+        <f>E46-D46</f>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="64"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="55">
-        <f t="shared" si="0"/>
+        <f>E47-D47</f>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="64"/>
       <c r="F48" s="55">
-        <f t="shared" si="0"/>
+        <f>E48-D48</f>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="55">
-        <f t="shared" si="0"/>
+        <f>E49-D49</f>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50" s="55">
-        <f t="shared" si="0"/>
+        <f>E50-D50</f>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="55">
-        <f t="shared" si="0"/>
+        <f>E51-D51</f>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52" s="55">
-        <f t="shared" si="0"/>
+        <f>E52-D52</f>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="55">
-        <f t="shared" si="0"/>
+        <f>E53-D53</f>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54" s="55">
-        <f t="shared" si="0"/>
+        <f>E54-D54</f>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55" s="55">
-        <f t="shared" si="0"/>
+        <f>E55-D55</f>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" s="55">
-        <f t="shared" si="0"/>
+        <f>E56-D56</f>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57" s="55">
-        <f t="shared" si="0"/>
+        <f>E57-D57</f>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58" s="55">
-        <f t="shared" si="0"/>
+        <f>E58-D58</f>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59" s="55">
-        <f t="shared" si="0"/>
+        <f>E59-D59</f>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
-        <f t="shared" si="0"/>
+        <f>E60-D60</f>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
-        <f t="shared" si="0"/>
+        <f>E61-D61</f>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
-        <f t="shared" si="0"/>
+        <f>E62-D62</f>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
-        <f t="shared" si="0"/>
+        <f>E63-D63</f>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
-        <f t="shared" si="0"/>
+        <f>E64-D64</f>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="55">
-        <f t="shared" si="0"/>
+        <f>E65-D65</f>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="55">
-        <f t="shared" si="0"/>
+        <f>E66-D66</f>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
-        <f t="shared" si="0"/>
+        <f>E67-D67</f>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
-        <f t="shared" ref="F68:F99" si="1">E68-D68</f>
+        <f>E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
-        <f t="shared" si="1"/>
+        <f>E69-D69</f>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
-        <f t="shared" si="1"/>
+        <f>E70-D70</f>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
-        <f t="shared" si="1"/>
+        <f>E71-D71</f>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
-        <f t="shared" si="1"/>
+        <f>E72-D72</f>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
-        <f t="shared" si="1"/>
+        <f>E73-D73</f>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
-        <f t="shared" si="1"/>
+        <f>E74-D74</f>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F75:F106" si="1">E75-D75</f>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
@@ -14986,31 +15535,79 @@
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
-        <f t="shared" ref="F100:F103" si="2">E100-D100</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="55"/>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="55"/>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="55"/>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="55"/>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="55">
+        <f t="shared" ref="F107:F110" si="2">E107-D107</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="55"/>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103" s="55"/>
+      <c r="G108" s="55"/>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="55"/>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15019,15 +15616,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
     <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.109375" style="19"/>
@@ -15076,7 +15673,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.37152777777777779</v>
+        <v>0.55208333333333348</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -15133,7 +15730,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="55">
-        <f t="shared" ref="F5:F67" si="0">E5-D5</f>
+        <f t="shared" ref="F5:F68" si="0">E5-D5</f>
         <v>6.25E-2</v>
       </c>
       <c r="G5" s="55"/>
@@ -15215,57 +15812,100 @@
       <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="71">
+        <v>44112</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F10" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="71">
+        <v>44115</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F11" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="A12" s="71">
+        <v>44116</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="F12" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="71">
+        <v>44123</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="F13" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
+      <c r="A14" s="64">
+        <v>44124</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="71"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55">
@@ -15343,7 +15983,6 @@
         <v>0</v>
       </c>
       <c r="G22" s="55"/>
-      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
@@ -15354,6 +15993,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="55"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
@@ -15527,6 +16167,8 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15534,6 +16176,7 @@
       <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="64"/>
       <c r="F42" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15717,28 +16360,28 @@
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
-        <f t="shared" ref="F68:F69" si="1">E68-D68</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F69:F70" si="1">E69-D69</f>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
-        <f t="shared" ref="F70:F103" si="2">E70-D70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F71:F104" si="2">E71-D71</f>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
@@ -15966,6 +16609,13 @@
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828D5DF-B9E1-4468-AC16-E0679F4A87D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE594A67-4B5D-4159-A297-24A49E7B4F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2124" windowWidth="17280" windowHeight="9060" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="102">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Überarbeitung</t>
+  </si>
+  <si>
+    <t>Seiten erstellen, Design überarbeiten</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1172,7 @@
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1343,9 +1346,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3051,16 +3051,16 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.78125000000000022</c:v>
+                  <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60416666666666696</c:v>
+                  <c:v>0.6805555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86111111111111127</c:v>
+                  <c:v>0.93750000000000022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55208333333333348</c:v>
+                  <c:v>0.76736111111111116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,7 +4227,7 @@
   <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -4290,30 +4290,30 @@
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="83">
+      <c r="G2" s="80"/>
+      <c r="H2" s="82">
         <v>44097</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="F3" s="80" t="s">
+      <c r="B3" s="85"/>
+      <c r="F3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="41">
         <v>0</v>
       </c>
@@ -4403,16 +4403,16 @@
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="42">
         <f ca="1">IFERROR(Projekt_Start+Scroll_Schrittweite,TODAY())</f>
         <v>44097</v>
@@ -6706,7 +6706,7 @@
       <c r="B16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="78">
         <v>0.41666666666666669</v>
       </c>
       <c r="D16" s="59" t="str">
@@ -6791,7 +6791,7 @@
       <c r="B17" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="78">
         <v>0.41666666666666669</v>
       </c>
       <c r="D17" s="59" t="str">
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="77"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
         <v>0</v>
@@ -7626,7 +7626,7 @@
       <c r="B26" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="78">
         <v>0.20833333333333334</v>
       </c>
       <c r="D26" s="59" t="str">
@@ -7711,7 +7711,7 @@
       <c r="B27" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="78">
         <v>0.33333333333333331</v>
       </c>
       <c r="D27" s="59" t="str">
@@ -7796,7 +7796,7 @@
       <c r="B28" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="78">
         <v>0.25</v>
       </c>
       <c r="D28" s="59" t="str">
@@ -7881,7 +7881,7 @@
       <c r="B29" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="78">
         <v>0.41666666666666669</v>
       </c>
       <c r="D29" s="59" t="str">
@@ -7963,10 +7963,10 @@
     </row>
     <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="59"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -8037,7 +8037,7 @@
       <c r="B31" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.14930555555555555</v>
@@ -8114,9 +8114,9 @@
       <c r="C32" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D32" s="59" t="str">
+      <c r="D32" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>11</v>
@@ -8127,7 +8127,7 @@
       <c r="G32" s="28">
         <v>0</v>
       </c>
-      <c r="H32" s="77"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="29"/>
       <c r="J32" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -8211,7 +8211,7 @@
       <c r="B33" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="79">
+      <c r="C33" s="78">
         <v>0.16666666666666666</v>
       </c>
       <c r="D33" s="59" t="str">
@@ -8227,7 +8227,7 @@
       <c r="G33" s="28">
         <v>0</v>
       </c>
-      <c r="H33" s="77"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="29"/>
       <c r="J33" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -8296,7 +8296,7 @@
       <c r="B34" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="78">
         <v>0.29166666666666669</v>
       </c>
       <c r="D34" s="59" t="str">
@@ -8312,7 +8312,7 @@
       <c r="G34" s="28">
         <v>0</v>
       </c>
-      <c r="H34" s="77"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="29"/>
       <c r="J34" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -8381,7 +8381,7 @@
       <c r="B35" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="78">
         <v>0.125</v>
       </c>
       <c r="D35" s="59" t="str">
@@ -8397,7 +8397,7 @@
       <c r="G35" s="28">
         <v>0</v>
       </c>
-      <c r="H35" s="77"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="29"/>
       <c r="J35" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -8466,7 +8466,7 @@
       <c r="B36" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="78">
         <v>0.33333333333333331</v>
       </c>
       <c r="D36" s="59" t="str">
@@ -8482,7 +8482,7 @@
       <c r="G36" s="28">
         <v>0</v>
       </c>
-      <c r="H36" s="77"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="29"/>
       <c r="J36" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -8551,7 +8551,7 @@
       <c r="B37" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="78">
         <v>0.16666666666666666</v>
       </c>
       <c r="D37" s="59" t="str">
@@ -8567,7 +8567,7 @@
       <c r="G37" s="28">
         <v>0</v>
       </c>
-      <c r="H37" s="77"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="29"/>
       <c r="J37" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -8636,7 +8636,7 @@
       <c r="B38" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="79">
+      <c r="C38" s="78">
         <v>0.16666666666666666</v>
       </c>
       <c r="D38" s="59" t="str">
@@ -8652,7 +8652,7 @@
       <c r="G38" s="28">
         <v>0</v>
       </c>
-      <c r="H38" s="77"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="29"/>
       <c r="J38" s="30">
         <f>IF(Meilensteine[[#This Row],[Kategorie]]="Meilenstein",1,_xlfn.DAYS(Meilensteine[[#This Row],[Ende]],Meilensteine[[#This Row],[Start]]))</f>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="D45" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.10416666666666666</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>11</v>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="D47" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.75000000000000044</v>
+        <v>0.91666666666666696</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="D48" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.2777777777777781</v>
+        <v>1.4166666666666672</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>11</v>
@@ -9938,7 +9938,7 @@
       <c r="B49" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="79">
+      <c r="C49" s="78">
         <v>0.41666666666666669</v>
       </c>
       <c r="D49" s="59" t="str">
@@ -10014,7 +10014,7 @@
       <c r="B50" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="79"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.18055555555555558</v>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>2.7986111111111116</v>
+        <v>3.2638888888888893</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.19412331406551067</v>
+        <v>0.2263969171483623</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11171,6 +11171,21 @@
           <xm:sqref>G6:G49 G51:G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCDF6180-781D-41D4-9F20-293570D1F4B2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="73" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -11208,21 +11223,6 @@
           </x14:cfRule>
           <xm:sqref>L7:BO55</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BCDF6180-781D-41D4-9F20-293570D1F4B2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G50</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -11764,11 +11764,11 @@
       </c>
       <c r="F23" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B23,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="G23" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C35" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B35,Jacob!F:F)</f>
-        <v>0.10416666666666666</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="D35" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B35,Roman!F:F)</f>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="G35" s="67">
         <f t="shared" si="0"/>
-        <v>0.10416666666666666</v>
+        <v>0.12499999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -12102,23 +12102,23 @@
       </c>
       <c r="C37" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B37,Jacob!F:F)</f>
-        <v>0.20833333333333348</v>
+        <v>0.25000000000000011</v>
       </c>
       <c r="D37" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B37,Roman!F:F)</f>
-        <v>0.20833333333333348</v>
+        <v>0.25000000000000011</v>
       </c>
       <c r="E37" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B37,Michi!F:F)</f>
-        <v>0.20833333333333348</v>
+        <v>0.25000000000000011</v>
       </c>
       <c r="F37" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B37,Sabrina!F:F)</f>
-        <v>0.12500000000000006</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>0.75000000000000044</v>
+        <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -12127,23 +12127,23 @@
       </c>
       <c r="C38" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B38,Jacob!F:F)</f>
-        <v>0.31944444444444453</v>
+        <v>0.3541666666666668</v>
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
-        <v>0.31944444444444453</v>
+        <v>0.3541666666666668</v>
       </c>
       <c r="E38" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B38,Michi!F:F)</f>
-        <v>0.31944444444444453</v>
+        <v>0.3541666666666668</v>
       </c>
       <c r="F38" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B38,Sabrina!F:F)</f>
-        <v>0.31944444444444453</v>
+        <v>0.3541666666666668</v>
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>1.2777777777777781</v>
+        <v>1.4166666666666672</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -12277,23 +12277,23 @@
       </c>
       <c r="C44" s="70">
         <f>SUM(C4:C43)</f>
-        <v>0.78125000000000022</v>
+        <v>0.87847222222222254</v>
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>0.60416666666666696</v>
+        <v>0.6805555555555558</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
-        <v>0.86111111111111127</v>
+        <v>0.93750000000000022</v>
       </c>
       <c r="F44" s="70">
         <f t="shared" ref="F44" si="2">SUM(F4:F43)</f>
-        <v>0.55208333333333348</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>2.798611111111112</v>
+        <v>3.2638888888888897</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -12362,10 +12362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.78125000000000022</v>
+        <v>0.87847222222222254</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -12452,7 +12452,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F4" s="55">
-        <f t="shared" ref="F4:F36" si="0">E4-D4</f>
+        <f t="shared" ref="F4:F37" si="0">E4-D4</f>
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
@@ -12722,31 +12722,55 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
+      <c r="A20" s="71">
+        <v>44125</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E20" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F20" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
+      <c r="A21" s="71">
+        <v>44112</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="64">
+        <v>44127</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="55">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E22" s="55">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12880,7 +12904,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f t="shared" ref="F37:F42" si="1">E37-D37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12889,7 +12913,7 @@
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F38:F43" si="1">E38-D38</f>
         <v>0</v>
       </c>
     </row>
@@ -12934,7 +12958,7 @@
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="55">
-        <f t="shared" ref="F43:F60" si="2">E43-D43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12943,7 +12967,7 @@
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F44:F61" si="2">E44-D44</f>
         <v>0</v>
       </c>
     </row>
@@ -13096,7 +13120,7 @@
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55">
-        <f t="shared" ref="F61:F82" si="3">E61-D61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13105,7 +13129,7 @@
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F62:F83" si="3">E62-D62</f>
         <v>0</v>
       </c>
     </row>
@@ -13254,6 +13278,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="64"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
       <c r="F79" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -13279,13 +13306,13 @@
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
-        <f t="shared" ref="F83:F116" si="4">E83-D83</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F84:F117" si="4">E84-D84</f>
         <v>0</v>
       </c>
     </row>
@@ -13477,6 +13504,12 @@
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F116" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F117" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13492,7 +13525,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A14" sqref="A14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13524,7 +13557,7 @@
       <c r="F1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
@@ -13549,7 +13582,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.60416666666666685</v>
+        <v>0.6805555555555558</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -13767,22 +13800,40 @@
       <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="A14" s="71">
+        <v>44125</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F14" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="A15" s="64">
+        <v>44127</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.5</v>
+      </c>
       <c r="F15" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="G15" s="55"/>
     </row>
@@ -14504,7 +14555,7 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14536,7 +14587,7 @@
       <c r="F1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
@@ -14561,7 +14612,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.86111111111111138</v>
+        <v>0.93750000000000022</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14898,22 +14949,40 @@
       <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="71">
+        <v>44125</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F21" s="55">
-        <f>E21-D21</f>
-        <v>0</v>
+        <f t="shared" ref="F21:F52" si="1">E21-D21</f>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="64">
+        <v>44127</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="55">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E22" s="55">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="55">
-        <f>E22-D22</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="G22" s="55"/>
     </row>
@@ -14922,7 +14991,7 @@
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55">
-        <f>E23-D23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="55"/>
@@ -14932,7 +15001,7 @@
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55">
-        <f>E24-D24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="55"/>
@@ -14942,7 +15011,7 @@
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55">
-        <f>E25-D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="55"/>
@@ -14952,7 +15021,7 @@
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55">
-        <f>E26-D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="55"/>
@@ -14962,7 +15031,7 @@
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <f>E27-D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="55"/>
@@ -14972,7 +15041,7 @@
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <f>E28-D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="55"/>
@@ -14983,7 +15052,7 @@
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f>E29-D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="55"/>
@@ -14993,7 +15062,7 @@
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55">
-        <f>E30-D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="55"/>
@@ -15003,7 +15072,7 @@
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <f>E31-D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="55"/>
@@ -15013,7 +15082,7 @@
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55">
-        <f>E32-D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="55"/>
@@ -15023,7 +15092,7 @@
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <f>E33-D33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="55"/>
@@ -15033,7 +15102,7 @@
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f>E34-D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" s="55"/>
@@ -15043,7 +15112,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f>E35-D35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="55"/>
@@ -15053,7 +15122,7 @@
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <f>E36-D36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="55"/>
@@ -15063,7 +15132,7 @@
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f>E37-D37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="55"/>
@@ -15073,7 +15142,7 @@
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f>E38-D38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38" s="55"/>
@@ -15083,7 +15152,7 @@
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55">
-        <f>E39-D39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="55"/>
@@ -15093,7 +15162,7 @@
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55">
-        <f>E40-D40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40" s="55"/>
@@ -15103,7 +15172,7 @@
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55">
-        <f>E41-D41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41" s="55"/>
@@ -15113,7 +15182,7 @@
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="55">
-        <f>E42-D42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G42" s="55"/>
@@ -15123,7 +15192,7 @@
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="55">
-        <f>E43-D43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
@@ -15133,7 +15202,7 @@
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="55">
-        <f>E44-D44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
@@ -15143,7 +15212,7 @@
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="55">
-        <f>E45-D45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
@@ -15153,7 +15222,7 @@
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
       <c r="F46" s="55">
-        <f>E46-D46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
@@ -15163,7 +15232,7 @@
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
       <c r="F47" s="55">
-        <f>E47-D47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
@@ -15171,441 +15240,441 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
       <c r="F48" s="55">
-        <f>E48-D48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="55">
-        <f>E49-D49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50" s="55">
-        <f>E50-D50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="55">
-        <f>E51-D51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52" s="55">
-        <f>E52-D52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="55">
-        <f>E53-D53</f>
+        <f t="shared" ref="F53:F84" si="2">E53-D53</f>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54" s="55">
-        <f>E54-D54</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55" s="55">
-        <f>E55-D55</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" s="55">
-        <f>E56-D56</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
     <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57" s="55">
-        <f>E57-D57</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58" s="55">
-        <f>E58-D58</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59" s="55">
-        <f>E59-D59</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
-        <f>E60-D60</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
-        <f>E61-D61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
-        <f>E62-D62</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
     <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
-        <f>E63-D63</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
     <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
-        <f>E64-D64</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
     <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="55">
-        <f>E65-D65</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
     <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="55">
-        <f>E66-D66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
-        <f>E67-D67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
-        <f>E68-D68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
-        <f>E69-D69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
-        <f>E70-D70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
-        <f>E71-D71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
-        <f>E72-D72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
-        <f>E73-D73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
-        <f>E74-D74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
-        <f t="shared" ref="F75:F106" si="1">E75-D75</f>
+        <f t="shared" ref="F75:F106" si="3">E75-D75</f>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G105" s="55"/>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F106" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="55"/>
     </row>
     <row r="107" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F107" s="55">
-        <f t="shared" ref="F107:F110" si="2">E107-D107</f>
+        <f t="shared" ref="F107:F110" si="4">E107-D107</f>
         <v>0</v>
       </c>
       <c r="G107" s="55"/>
     </row>
     <row r="108" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F108" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108" s="55"/>
     </row>
     <row r="109" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F109" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109" s="55"/>
     </row>
     <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15619,7 +15688,7 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15651,7 +15720,7 @@
       <c r="F1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="76"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="71">
@@ -15673,7 +15742,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.55208333333333348</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -15905,32 +15974,57 @@
       <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="A15" s="71">
+        <v>44125</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F15" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="64">
+        <v>44127</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0.5</v>
+      </c>
       <c r="F16" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+      <c r="A17" s="64">
+        <v>44130</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="G17" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D0710-4A88-4524-8D16-A06F28E7F464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2124" windowWidth="17280" windowHeight="9060" tabRatio="415" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2130" windowWidth="17280" windowHeight="9060" tabRatio="415" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,16 +16,13 @@
     <sheet name="Gantt Info" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
     <definedName name="Heute" localSheetId="0">TODAY()</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
     <definedName name="Projekt_Start">Gantt!$H$2</definedName>
     <definedName name="Scroll_Schrittweite">Gantt!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -46,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -348,11 +344,41 @@
   <si>
     <t>Userstories, Datenbankstruktur, Prototype</t>
   </si>
+  <si>
+    <t>PostgreSQL in DB einrichten</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Epics und User Stories Definieren</t>
+  </si>
+  <si>
+    <t>DDL Script schreiben</t>
+  </si>
+  <si>
+    <t>Docker-Compose YAML</t>
+  </si>
+  <si>
+    <t>Entities generieren</t>
+  </si>
+  <si>
+    <t>Testdaten inserten</t>
+  </si>
+  <si>
+    <t>Insert Statements Automatisieren</t>
+  </si>
+  <si>
+    <t>ExerciseRepository Class</t>
+  </si>
+  <si>
+    <t>Entities mit Michi besprechen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1356,58 +1382,58 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="32" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="35" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="39" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="43" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="47" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="29" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="33" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="36" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="40" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="30" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="34" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="37" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="41" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="27" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="31" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="11" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="38" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="16" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="12" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="13" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Datum" xfId="9" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Explanatory Text" xfId="25" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="15" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="28" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="32" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="35" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="39" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="43" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="47" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="29" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="33" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="36" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="40" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="44" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="48" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="30" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="34" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="37" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="41" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="45" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="49" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="27" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="31" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="11" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="38" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="42" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="46" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="19" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Datum" xfId="9"/>
+    <cellStyle name="Dezimal [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="18" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="26" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="25" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="15" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="18" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="21" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="24" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="19" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Tiefe 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Tiefe 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="26" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Notiz" xfId="24" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Tiefe 1" xfId="50"/>
+    <cellStyle name="Tiefe 2" xfId="51"/>
+    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="21" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Währung" xfId="12" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Währung [0]" xfId="13" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="23" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="22" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="80">
     <dxf>
@@ -2467,7 +2493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2697,12 +2722,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="79"/>
       <tableStyleElement type="headerRow" dxfId="78"/>
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="76"/>
       <tableStyleElement type="headerRow" dxfId="75"/>
       <tableStyleElement type="totalRow" dxfId="74"/>
@@ -2805,9 +2830,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2854,7 +2879,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8F60-46C1-86D0-BB2F6B41B8BD}"/>
               </c:ext>
@@ -2878,7 +2903,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8F60-46C1-86D0-BB2F6B41B8BD}"/>
               </c:ext>
@@ -2902,7 +2927,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-46FD-4C5C-A1C0-E4F5082E896A}"/>
               </c:ext>
@@ -2926,7 +2951,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-46FD-4C5C-A1C0-E4F5082E896A}"/>
               </c:ext>
@@ -2975,7 +3000,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-AT"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2999,7 +3024,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3033,7 +3058,7 @@
                   <c:v>0.3715277777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3715277777777779</c:v>
+                  <c:v>1.2256944444444446</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3715277777777779</c:v>
@@ -3044,7 +3069,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-8F60-46C1-86D0-BB2F6B41B8BD}"/>
             </c:ext>
@@ -3072,6 +3097,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3102,7 +3128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3148,7 +3174,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3811,31 +3837,28 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6149" name="Scrollleiste 5" descr="Scroll bar to scroll through the Ghantt project timeline." hidden="1">
+            <xdr:cNvPr id="6149" name="Scrollleiste 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6149"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3843,12 +3866,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3879,7 +3896,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,8 +3920,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Meilensteine" displayName="Meilensteine" ref="B6:J52">
-  <autoFilter ref="B6:J52" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Meilensteine" displayName="Meilensteine" ref="B6:J52">
+  <autoFilter ref="B6:J52">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3916,17 +3933,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aufwandsschätzung[h]" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="tatsächlicher Aufwand[h]" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="1" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="7" name="Aufwandsschätzung[h]" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="8" name="tatsächlicher Aufwand[h]" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategorie" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fortschritt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{70FDCF50-D5DA-4C67-AC0E-D6EB8BCCF097}" name="Ende" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Datum"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="54"/>
+    <tableColumn id="2" name="Kategorie" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="3" name="Zugewiesen an" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="4" name="Fortschritt"/>
+    <tableColumn id="5" name="Start" totalsRowDxfId="57"/>
+    <tableColumn id="9" name="Ende" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Datum"/>
+    <tableColumn id="6" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4192,14 +4209,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4210,22 +4227,22 @@
       <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="67" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="67" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4265,7 +4282,7 @@
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4284,7 +4301,7 @@
       <c r="J2" s="86"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -4378,7 +4395,7 @@
       <c r="BN3" s="40"/>
       <c r="BO3" s="40"/>
     </row>
-    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4617,7 +4634,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4688,7 +4705,7 @@
       <c r="BN5" s="47"/>
       <c r="BO5" s="48"/>
     </row>
-    <row r="6" spans="1:67" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -4722,7 +4739,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="22" t="str">
         <f t="shared" ref="L6:AQ6" ca="1" si="3">LEFT(TEXT(L4,"TTT"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="M6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4730,19 +4747,19 @@
       </c>
       <c r="N6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="P6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="R6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4750,7 +4767,7 @@
       </c>
       <c r="S6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="T6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4758,19 +4775,19 @@
       </c>
       <c r="U6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="W6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="X6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Y6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4778,7 +4795,7 @@
       </c>
       <c r="Z6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AA6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4786,19 +4803,19 @@
       </c>
       <c r="AB6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AC6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AD6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AE6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AF6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4806,7 +4823,7 @@
       </c>
       <c r="AG6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AH6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4814,19 +4831,19 @@
       </c>
       <c r="AI6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AJ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AK6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AL6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AM6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4834,7 +4851,7 @@
       </c>
       <c r="AN6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AO6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4842,19 +4859,19 @@
       </c>
       <c r="AP6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AQ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AR6" s="22" t="str">
         <f t="shared" ref="AR6:BO6" ca="1" si="4">LEFT(TEXT(AR4,"TTT"),1)</f>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AS6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AT6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4862,7 +4879,7 @@
       </c>
       <c r="AU6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AV6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4870,19 +4887,19 @@
       </c>
       <c r="AW6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AX6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AY6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AZ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BA6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4890,7 +4907,7 @@
       </c>
       <c r="BB6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BC6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4898,19 +4915,19 @@
       </c>
       <c r="BD6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BE6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BF6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BG6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BH6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4918,7 +4935,7 @@
       </c>
       <c r="BI6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BJ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4926,19 +4943,19 @@
       </c>
       <c r="BK6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BL6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BM6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BN6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BO6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5018,7 +5035,7 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
     </row>
-    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -7431,9 +7448,9 @@
       <c r="C24" s="68">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D24" s="59" t="str">
+      <c r="D24" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.32638888888888884</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>11</v>
@@ -7600,7 +7617,7 @@
       <c r="BN25" s="35"/>
       <c r="BO25" s="35"/>
     </row>
-    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="53" t="s">
         <v>77</v>
@@ -7608,9 +7625,9 @@
       <c r="C26" s="79">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D26" s="59" t="str">
+      <c r="D26" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -7685,7 +7702,7 @@
       <c r="BN26" s="35"/>
       <c r="BO26" s="35"/>
     </row>
-    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="53" t="s">
         <v>78</v>
@@ -7770,7 +7787,7 @@
       <c r="BN27" s="35"/>
       <c r="BO27" s="35"/>
     </row>
-    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="53" t="s">
         <v>82</v>
@@ -7855,7 +7872,7 @@
       <c r="BN28" s="35"/>
       <c r="BO28" s="35"/>
     </row>
-    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="53" t="s">
         <v>79</v>
@@ -7863,9 +7880,9 @@
       <c r="C29" s="79">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D29" s="59" t="str">
+      <c r="D29" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.22222222222222232</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>11</v>
@@ -7940,7 +7957,7 @@
       <c r="BN29" s="35"/>
       <c r="BO29" s="35"/>
     </row>
-    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="78" t="s">
         <v>53</v>
@@ -8011,7 +8028,7 @@
       <c r="BN30" s="35"/>
       <c r="BO30" s="35"/>
     </row>
-    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="53" t="s">
         <v>54</v>
@@ -8111,7 +8128,7 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="35"/>
     </row>
-    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="53" t="s">
         <v>89</v>
@@ -8196,7 +8213,7 @@
       <c r="BN32" s="35"/>
       <c r="BO32" s="35"/>
     </row>
-    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="53" t="s">
         <v>83</v>
@@ -8281,7 +8298,7 @@
       <c r="BN33" s="35"/>
       <c r="BO33" s="35"/>
     </row>
-    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="53" t="s">
         <v>84</v>
@@ -8366,7 +8383,7 @@
       <c r="BN34" s="35"/>
       <c r="BO34" s="35"/>
     </row>
-    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="53" t="s">
         <v>85</v>
@@ -8451,7 +8468,7 @@
       <c r="BN35" s="35"/>
       <c r="BO35" s="35"/>
     </row>
-    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="53" t="s">
         <v>86</v>
@@ -8536,7 +8553,7 @@
       <c r="BN36" s="35"/>
       <c r="BO36" s="35"/>
     </row>
-    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="53" t="s">
         <v>87</v>
@@ -8621,7 +8638,7 @@
       <c r="BN37" s="35"/>
       <c r="BO37" s="35"/>
     </row>
-    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="53" t="s">
         <v>55</v>
@@ -8721,7 +8738,7 @@
       <c r="BN38" s="35"/>
       <c r="BO38" s="35"/>
     </row>
-    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="53" t="s">
         <v>70</v>
@@ -8821,7 +8838,7 @@
       <c r="BN39" s="35"/>
       <c r="BO39" s="35"/>
     </row>
-    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="53" t="s">
         <v>56</v>
@@ -8915,7 +8932,7 @@
       <c r="BN40" s="35"/>
       <c r="BO40" s="35"/>
     </row>
-    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="52" t="s">
         <v>57</v>
@@ -9154,7 +9171,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="53" t="s">
         <v>58</v>
@@ -9407,7 +9424,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
         <v>59</v>
@@ -9495,7 +9512,7 @@
       <c r="BN43" s="35"/>
       <c r="BO43" s="35"/>
     </row>
-    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="53" t="s">
         <v>60</v>
@@ -9583,7 +9600,7 @@
       <c r="BN44" s="35"/>
       <c r="BO44" s="35"/>
     </row>
-    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
         <v>61</v>
@@ -9668,7 +9685,7 @@
       <c r="BN45" s="35"/>
       <c r="BO45" s="35"/>
     </row>
-    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="53" t="s">
         <v>63</v>
@@ -9678,7 +9695,7 @@
       </c>
       <c r="D46" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.41666666666666702</v>
+        <v>0.45138888888888923</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>11</v>
@@ -9753,7 +9770,7 @@
       <c r="BN46" s="35"/>
       <c r="BO46" s="35"/>
     </row>
-    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
         <v>64</v>
@@ -9763,7 +9780,7 @@
       </c>
       <c r="D47" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.98611111111111116</v>
+        <v>1.0069444444444444</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -9838,7 +9855,7 @@
       <c r="BN47" s="35"/>
       <c r="BO47" s="35"/>
     </row>
-    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
         <v>62</v>
@@ -10091,7 +10108,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="52" t="s">
         <v>65</v>
@@ -10162,7 +10179,7 @@
       <c r="BN49" s="35"/>
       <c r="BO49" s="35"/>
     </row>
-    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
         <v>66</v>
@@ -10247,7 +10264,7 @@
       <c r="BN50" s="35"/>
       <c r="BO50" s="35"/>
     </row>
-    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="53" t="s">
         <v>72</v>
@@ -10500,7 +10517,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="66" t="s">
         <v>36</v>
@@ -10511,18 +10528,18 @@
       </c>
       <c r="D52" s="68">
         <f>SUM(D8:D51)</f>
-        <v>1.4861111111111116</v>
+        <v>2.2152777777777781</v>
       </c>
       <c r="E52" s="69" t="s">
         <v>37</v>
       </c>
       <c r="F52" s="31" t="str">
         <f>IF(D52=Übersicht!G44,"OK","FEHLER")</f>
-        <v>OK</v>
+        <v>FEHLER</v>
       </c>
       <c r="G52" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.10308285163776498</v>
+        <v>0.1536608863198459</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -10585,7 +10602,7 @@
       <c r="BN52" s="35"/>
       <c r="BO52" s="35"/>
     </row>
-    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>7</v>
       </c>
@@ -10658,7 +10675,7 @@
       <c r="BN53" s="35"/>
       <c r="BO53" s="35"/>
     </row>
-    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>8</v>
       </c>
@@ -10729,7 +10746,7 @@
       <c r="BN54" s="34"/>
       <c r="BO54" s="34"/>
     </row>
-    <row r="55" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="6"/>
       <c r="K55" s="4"/>
     </row>
@@ -10920,13 +10937,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="H3:I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="H3:I3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E52" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E52">
       <formula1>"Ziel,Meilenstein,Im Plan, Geringes Risiko, Mittleres Risiko, Hohes Risiko"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E8">
       <formula1>"Ziel,Meilenstein,Im Plan, Geringes Risiko, Mittleres Risiko, Hohes Risiko"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10948,15 +10965,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>67</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11032,28 +11049,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="19"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>39</v>
       </c>
@@ -11073,7 +11090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -11098,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -11123,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -11148,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -11173,7 +11190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -11198,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -11223,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -11248,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -11273,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -11298,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -11323,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -11348,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -11373,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -11398,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -11423,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -11433,7 +11450,7 @@
       </c>
       <c r="D18" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B18,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.32638888888888884</v>
       </c>
       <c r="E18" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B18,Michi!F:F)</f>
@@ -11445,10 +11462,10 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.32638888888888884</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -11458,7 +11475,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11470,10 +11487,10 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -11498,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -11523,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>79</v>
       </c>
@@ -11533,7 +11550,7 @@
       </c>
       <c r="D22" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B22,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.22222222222222232</v>
       </c>
       <c r="E22" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B22,Michi!F:F)</f>
@@ -11545,10 +11562,10 @@
       </c>
       <c r="G22" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.22222222222222232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
@@ -11573,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -11598,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -11623,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -11648,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -11673,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -11698,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>87</v>
       </c>
@@ -11723,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -11748,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -11773,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -11798,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>58</v>
       </c>
@@ -11823,7 +11840,7 @@
         <v>7.6388888888888881E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>59</v>
       </c>
@@ -11848,7 +11865,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
         <v>60</v>
       </c>
@@ -11873,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -11898,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -11908,7 +11925,7 @@
       </c>
       <c r="D37" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B37,Roman!F:F)</f>
-        <v>0.12500000000000011</v>
+        <v>0.15972222222222232</v>
       </c>
       <c r="E37" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B37,Michi!F:F)</f>
@@ -11920,10 +11937,10 @@
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.45138888888888923</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>64</v>
       </c>
@@ -11933,7 +11950,7 @@
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
-        <v>0.24652777777777779</v>
+        <v>0.26736111111111105</v>
       </c>
       <c r="E38" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B38,Michi!F:F)</f>
@@ -11945,10 +11962,10 @@
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>0.98611111111111116</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.0069444444444444</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -11973,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -11998,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>72</v>
       </c>
@@ -12023,14 +12040,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
       <c r="C42" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B42,Jacob!F:F)</f>
         <v>0</v>
       </c>
       <c r="D42" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B42,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E42" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B42,Michi!F:F)</f>
@@ -12042,10 +12062,10 @@
       </c>
       <c r="G42" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C43" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B43,Jacob!F:F)</f>
         <v>0</v>
@@ -12067,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>32</v>
       </c>
@@ -12077,7 +12097,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>0.3715277777777779</v>
+        <v>1.2256944444444446</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12089,10 +12109,10 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>1.4861111111111116</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+        <v>2.3402777777777781</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -12114,7 +12134,7 @@
       </c>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
     </row>
   </sheetData>
@@ -12157,22 +12177,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -12192,7 +12212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -12217,7 +12237,7 @@
         <v>0.3715277777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -12235,7 +12255,7 @@
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="64">
         <v>44101</v>
       </c>
@@ -12253,7 +12273,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <v>44103</v>
       </c>
@@ -12271,7 +12291,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="71">
         <v>44105</v>
       </c>
@@ -12323,7 +12343,7 @@
       </c>
       <c r="J8" s="57"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
@@ -12332,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="64"/>
       <c r="C10" s="75"/>
       <c r="D10" s="55"/>
@@ -12342,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="64"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -12351,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
       <c r="C12" s="75"/>
       <c r="D12" s="55"/>
@@ -12361,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -12370,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -12379,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
@@ -12388,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -12397,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -12406,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -12415,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -12424,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -12433,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -12442,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -12451,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -12460,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -12469,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -12478,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -12487,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -12496,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -12505,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -12514,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -12523,7 +12543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -12532,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -12541,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -12550,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -12559,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -12568,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -12577,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -12586,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -12595,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -12604,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -12613,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -12622,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="64"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
@@ -12631,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -12640,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="64"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -12649,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="64"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -12658,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="64"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -12667,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="64"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -12676,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
@@ -12685,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
@@ -12694,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
@@ -12703,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
@@ -12712,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
@@ -12721,7 +12741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
@@ -12730,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -12739,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
@@ -12748,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="64"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
@@ -12757,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
@@ -12766,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="64"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
@@ -12775,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="64"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
@@ -12784,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="64"/>
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
@@ -12793,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="64"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
@@ -12802,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="64"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
@@ -12811,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="64"/>
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
@@ -12820,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="64"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
@@ -12829,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="64"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
@@ -12838,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="64"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
@@ -12847,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="64"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
@@ -12856,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
@@ -12865,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="64"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
@@ -12874,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="64"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
@@ -12883,229 +12903,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" ref="F75:F108" si="4">E75-D75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13118,24 +13138,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D607740-3075-4F99-B3D6-6E582475898F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -13156,7 +13177,7 @@
       </c>
       <c r="G1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -13179,12 +13200,12 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.3715277777777779</v>
+        <v>1.2256944444444446</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -13204,7 +13225,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -13226,167 +13247,284 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
+        <v>44102</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F5" s="55">
+        <f>E5-D5</f>
+        <v>0.125</v>
+      </c>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="64">
         <v>44103</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="55">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E5" s="55">
-        <v>0.4375</v>
-      </c>
-      <c r="F5" s="55">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
-        <v>44105</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="55">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.4375</v>
+      </c>
+      <c r="F6" s="55">
+        <f>E6-D6</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="71">
+        <v>44105</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="55">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E7" s="55">
         <v>0.57638888888888895</v>
       </c>
-      <c r="F6" s="55">
-        <f t="shared" si="0"/>
+      <c r="F7" s="55">
+        <f>E7-D7</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="71">
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="71">
         <v>44110</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D8" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E8" s="55">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F7" s="55">
-        <f t="shared" si="0"/>
+      <c r="F8" s="55">
+        <f>E8-D8</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="64">
+        <v>44118</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F9" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E9-D9</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="71">
+        <v>44120</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F10" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E10-D10</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="71">
+        <v>44124</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F11" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E11-D11</f>
+        <v>0.10416666666666674</v>
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="71">
+        <v>44126</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F12" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E12-D12</f>
+        <v>0.125</v>
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="71">
+        <v>44127</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F13" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E13-D13</f>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="71">
+        <v>44133</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.875</v>
+      </c>
       <c r="F14" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="64">
+        <v>44134</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="F15" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="64">
+        <v>44137</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0.93055555555555547</v>
+      </c>
       <c r="F16" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20138888888888884</v>
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F17" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -13396,7 +13534,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -13406,7 +13544,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -13416,7 +13554,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -13427,7 +13565,7 @@
       <c r="G21" s="55"/>
       <c r="I21" s="67"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -13437,7 +13575,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -13447,7 +13585,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -13457,7 +13595,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -13467,7 +13605,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -13477,7 +13615,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -13487,7 +13625,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -13497,7 +13635,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -13507,7 +13645,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -13517,7 +13655,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -13527,7 +13665,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -13537,7 +13675,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -13547,7 +13685,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -13557,7 +13695,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -13567,7 +13705,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -13577,7 +13715,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -13587,7 +13725,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -13597,7 +13735,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -13607,7 +13745,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -13617,7 +13755,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
@@ -13625,440 +13763,440 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F42" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" ref="F68:F104" si="1">E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -14070,24 +14208,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A83429-E426-4DF5-ADF8-C1138D6006D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -14108,7 +14246,7 @@
       </c>
       <c r="G1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -14136,7 +14274,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -14156,7 +14294,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -14178,7 +14316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64">
         <v>44103</v>
       </c>
@@ -14198,7 +14336,7 @@
       <c r="G5" s="55"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="71">
         <v>44105</v>
       </c>
@@ -14217,7 +14355,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="71">
         <v>44110</v>
       </c>
@@ -14239,7 +14377,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -14249,7 +14387,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="71"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
@@ -14259,7 +14397,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -14269,7 +14407,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -14279,7 +14417,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="71"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -14289,7 +14427,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -14299,7 +14437,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -14309,7 +14447,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
@@ -14319,7 +14457,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -14329,7 +14467,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -14339,7 +14477,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -14349,7 +14487,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -14359,7 +14497,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -14369,7 +14507,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -14379,7 +14517,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -14390,7 +14528,7 @@
       <c r="G22" s="55"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -14400,7 +14538,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -14410,7 +14548,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -14420,7 +14558,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -14430,7 +14568,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -14440,7 +14578,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -14450,7 +14588,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -14460,7 +14598,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -14470,7 +14608,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -14480,7 +14618,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -14490,7 +14628,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -14500,7 +14638,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -14510,7 +14648,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -14520,7 +14658,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -14530,7 +14668,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -14540,7 +14678,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -14550,7 +14688,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -14560,7 +14698,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -14570,7 +14708,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
@@ -14578,434 +14716,434 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F42" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" ref="F68:F99" si="1">E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" ref="F100:F103" si="2">E100-D100</f>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -15018,24 +15156,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -15056,7 +15194,7 @@
       </c>
       <c r="G1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="71">
         <v>44100</v>
       </c>
@@ -15081,7 +15219,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44101</v>
       </c>
@@ -15099,7 +15237,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
         <v>44101</v>
       </c>
@@ -15119,7 +15257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="71">
         <v>44101</v>
       </c>
@@ -15138,7 +15276,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="71">
         <v>43948</v>
       </c>
@@ -15155,7 +15293,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44101</v>
       </c>
@@ -15173,7 +15311,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="64">
         <v>44103</v>
       </c>
@@ -15192,7 +15330,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44110</v>
       </c>
@@ -15214,7 +15352,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -15224,7 +15362,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -15234,7 +15372,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="71"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -15244,7 +15382,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -15254,7 +15392,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -15264,7 +15402,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
@@ -15274,7 +15412,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -15284,7 +15422,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -15294,7 +15432,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -15304,7 +15442,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -15314,7 +15452,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -15324,7 +15462,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -15334,7 +15472,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -15345,7 +15483,7 @@
       <c r="G22" s="55"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -15355,7 +15493,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -15365,7 +15503,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -15375,7 +15513,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -15385,7 +15523,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -15395,7 +15533,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -15405,7 +15543,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -15415,7 +15553,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -15425,7 +15563,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -15435,7 +15573,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -15445,7 +15583,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -15455,7 +15593,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -15465,7 +15603,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -15475,7 +15613,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -15485,7 +15623,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -15495,7 +15633,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -15505,7 +15643,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -15515,7 +15653,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -15525,7 +15663,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="F41" s="55">
         <f t="shared" si="0"/>
@@ -15533,434 +15671,434 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F42" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" ref="F68:F69" si="1">E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" ref="F70:F103" si="2">E70-D70</f>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -15974,40 +16112,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>21</v>
       </c>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="104">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Entities mit Michi besprechen</t>
+  </si>
+  <si>
+    <t>Datenbank Test testweise implementiert</t>
   </si>
 </sst>
 </file>
@@ -1517,6 +1520,112 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2473,112 +2582,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3058,7 +3061,7 @@
                   <c:v>0.3715277777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2256944444444446</c:v>
+                  <c:v>1.3090277777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3715277777777779</c:v>
@@ -3896,7 +3899,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,17 +3936,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="7" name="Aufwandsschätzung[h]" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="8" name="tatsächlicher Aufwand[h]" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="1" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="Aufwandsschätzung[h]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" name="tatsächlicher Aufwand[h]" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Kategorie" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="3" name="Zugewiesen an" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="2" name="Kategorie" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" name="Zugewiesen an" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="4" name="Fortschritt"/>
-    <tableColumn id="5" name="Start" totalsRowDxfId="57"/>
-    <tableColumn id="9" name="Ende" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Datum"/>
-    <tableColumn id="6" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="54"/>
+    <tableColumn id="5" name="Start" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="Ende" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Datum"/>
+    <tableColumn id="6" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4209,7 +4212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10187,9 +10190,9 @@
       <c r="C50" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D50" s="59" t="str">
+      <c r="D50" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>11</v>
@@ -10528,7 +10531,7 @@
       </c>
       <c r="D52" s="68">
         <f>SUM(D8:D51)</f>
-        <v>2.2152777777777781</v>
+        <v>2.2986111111111116</v>
       </c>
       <c r="E52" s="69" t="s">
         <v>37</v>
@@ -10539,7 +10542,7 @@
       </c>
       <c r="G52" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.1536608863198459</v>
+        <v>0.15944123314065517</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -10773,166 +10776,166 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO54">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>AND(TODAY()&gt;=L$4,TODAY()&lt;M$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:AP3">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="66" priority="9">
       <formula>L$4&lt;=EOMONTH($L$4,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BO3">
-    <cfRule type="expression" dxfId="51" priority="5">
+    <cfRule type="expression" dxfId="65" priority="5">
       <formula>AND(M$4&lt;=EOMONTH($L$4,2),M$4&gt;EOMONTH($L$4,0),M$4&gt;EOMONTH($L$4,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:BO3">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="64" priority="4">
       <formula>AND(L$4&lt;=EOMONTH($L$4,1),L$4&gt;EOMONTH($L$4,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:BO20 L25:BO30 L34:BO51">
-    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="26" stopIfTrue="1">
       <formula>AND($E7="Geringes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="45" stopIfTrue="1">
       <formula>AND($E7="Hohes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
       <formula>AND($E7="Im Plan",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="64" stopIfTrue="1">
       <formula>AND($E7="Mittleres Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="65" stopIfTrue="1">
       <formula>AND(LEN($E7)=0,L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:BO54">
-    <cfRule type="expression" dxfId="44" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="75" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="76" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="77" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="FEHLER">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="FEHLER">
       <formula>NOT(ISERROR(SEARCH("FEHLER",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:BO53">
-    <cfRule type="expression" dxfId="37" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="246" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="247" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="248" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="249" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="250" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:BO24">
-    <cfRule type="expression" dxfId="32" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="287" stopIfTrue="1">
       <formula>AND($E24="Geringes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="288" stopIfTrue="1">
       <formula>AND($E24="Hohes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="289" stopIfTrue="1">
       <formula>AND($E24="Im Plan",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="290" stopIfTrue="1">
       <formula>AND($E24="Mittleres Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="291" stopIfTrue="1">
       <formula>AND(LEN($E24)=0,L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO23">
-    <cfRule type="expression" dxfId="27" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="351" stopIfTrue="1">
       <formula>AND($E21="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="352" stopIfTrue="1">
       <formula>AND($E21="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="353" stopIfTrue="1">
       <formula>AND($E21="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="354" stopIfTrue="1">
       <formula>AND($E21="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="355" stopIfTrue="1">
       <formula>AND(LEN($E21)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:BO52">
-    <cfRule type="expression" dxfId="22" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="406" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="407" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="408" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="409" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="410" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:BO32">
-    <cfRule type="expression" dxfId="17" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="417" stopIfTrue="1">
       <formula>AND($E33="Geringes Risiko",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="418" stopIfTrue="1">
       <formula>AND($E33="Hohes Risiko",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="419" stopIfTrue="1">
       <formula>AND($E33="Im Plan",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="420" stopIfTrue="1">
       <formula>AND($E33="Mittleres Risiko",L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="421" stopIfTrue="1">
       <formula>AND(LEN($E33)=0,L$4&gt;=$H31,L$4&lt;=$H31+$J31-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:BO33">
-    <cfRule type="expression" dxfId="12" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="422" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="423" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="424" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="425" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="426" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=$H33,L$4&lt;=$H33+$J33-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12000,7 +12003,7 @@
       </c>
       <c r="D40" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B40,Roman!F:F)</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="E40" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B40,Michi!F:F)</f>
@@ -12012,7 +12015,7 @@
       </c>
       <c r="G40" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12097,7 +12100,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>1.2256944444444446</v>
+        <v>1.3090277777777779</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12109,7 +12112,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>2.3402777777777781</v>
+        <v>2.4236111111111116</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13142,7 +13145,7 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13200,7 +13203,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>1.2256944444444446</v>
+        <v>1.3090277777777779</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -13264,7 +13267,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F5" s="55">
-        <f>E5-D5</f>
+        <f t="shared" ref="F5:F13" si="1">E5-D5</f>
         <v>0.125</v>
       </c>
       <c r="G5" s="55"/>
@@ -13283,7 +13286,7 @@
         <v>0.4375</v>
       </c>
       <c r="F6" s="55">
-        <f>E6-D6</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="G6" s="55"/>
@@ -13302,7 +13305,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="F7" s="55">
-        <f>E7-D7</f>
+        <f t="shared" si="1"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="G7" s="55"/>
@@ -13324,7 +13327,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F8" s="55">
-        <f>E8-D8</f>
+        <f t="shared" si="1"/>
         <v>0.11458333333333326</v>
       </c>
       <c r="G8" s="55"/>
@@ -13346,7 +13349,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F9" s="55">
-        <f>E9-D9</f>
+        <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G9" s="55"/>
@@ -13368,7 +13371,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="F10" s="55">
-        <f>E10-D10</f>
+        <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G10" s="55"/>
@@ -13390,7 +13393,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F11" s="55">
-        <f>E11-D11</f>
+        <f t="shared" si="1"/>
         <v>0.10416666666666674</v>
       </c>
       <c r="G11" s="55"/>
@@ -13412,7 +13415,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F12" s="55">
-        <f>E12-D12</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="G12" s="55"/>
@@ -13434,7 +13437,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F13" s="55">
-        <f>E13-D13</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="G13" s="55"/>
@@ -13525,12 +13528,24 @@
       <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="A18" s="64">
+        <v>44143</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F18" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="G18" s="55"/>
     </row>
@@ -13947,258 +13962,258 @@
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
-        <f t="shared" ref="F68:F104" si="1">E68-D68</f>
+        <f t="shared" ref="F68:F104" si="2">E68-D68</f>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
     <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
     <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
     <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
     <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
     <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
     <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="105">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Datenbank Test testweise implementiert</t>
+  </si>
+  <si>
+    <t>Test Framework aufgeräumt</t>
   </si>
 </sst>
 </file>
@@ -3061,7 +3064,7 @@
                   <c:v>0.3715277777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3090277777777779</c:v>
+                  <c:v>1.3923611111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3715277777777779</c:v>
@@ -3100,7 +3103,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3899,7 +3901,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4212,7 +4214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10192,7 +10194,7 @@
       </c>
       <c r="D50" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>8.3333333333333259E-2</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>11</v>
@@ -10531,7 +10533,7 @@
       </c>
       <c r="D52" s="68">
         <f>SUM(D8:D51)</f>
-        <v>2.2986111111111116</v>
+        <v>2.3819444444444446</v>
       </c>
       <c r="E52" s="69" t="s">
         <v>37</v>
@@ -10542,7 +10544,7 @@
       </c>
       <c r="G52" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.15944123314065517</v>
+        <v>0.16522157996146439</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -12003,7 +12005,7 @@
       </c>
       <c r="D40" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B40,Roman!F:F)</f>
-        <v>8.3333333333333259E-2</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E40" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B40,Michi!F:F)</f>
@@ -12015,7 +12017,7 @@
       </c>
       <c r="G40" s="67">
         <f t="shared" si="0"/>
-        <v>8.3333333333333259E-2</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12100,7 +12102,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>1.3090277777777779</v>
+        <v>1.3923611111111112</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12112,7 +12114,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>2.4236111111111116</v>
+        <v>2.5069444444444446</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13145,7 +13147,7 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13203,7 +13205,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>1.3090277777777779</v>
+        <v>1.3923611111111112</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -13550,12 +13552,24 @@
       <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+      <c r="A19" s="64">
+        <v>44145</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F19" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G19" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE594A67-4B5D-4159-A297-24A49E7B4F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,16 +16,13 @@
     <sheet name="Gantt Info" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
     <definedName name="Heute" localSheetId="0">TODAY()</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
     <definedName name="Projekt_Start">Gantt!$H$2</definedName>
     <definedName name="Scroll_Schrittweite">Gantt!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -46,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -375,11 +371,50 @@
   <si>
     <t>Seiten erstellen, Design überarbeiten</t>
   </si>
+  <si>
+    <t>Test Framework aufgeräumt</t>
+  </si>
+  <si>
+    <t>Datenbank Test testweise implementiert</t>
+  </si>
+  <si>
+    <t>ExerciseRepository Class</t>
+  </si>
+  <si>
+    <t>Insert Statements Automatisieren</t>
+  </si>
+  <si>
+    <t>Testdaten inserten</t>
+  </si>
+  <si>
+    <t>Entities mit Michi besprechen</t>
+  </si>
+  <si>
+    <t>Entities generieren</t>
+  </si>
+  <si>
+    <t>Docker-Compose YAML</t>
+  </si>
+  <si>
+    <t>DDL Script schreiben</t>
+  </si>
+  <si>
+    <t>PostgreSQL in DB einrichten</t>
+  </si>
+  <si>
+    <t>Epics und User Stories Definieren</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Genric Repository und Tests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1377,58 +1412,58 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="32" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="35" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="39" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="43" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="47" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="29" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="33" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="36" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="40" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="30" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="34" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="37" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="41" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="27" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="31" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="11" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="38" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="16" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="12" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="13" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Datum" xfId="9" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Explanatory Text" xfId="25" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="15" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="28" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="32" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="35" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="39" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="43" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="47" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="29" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="33" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="36" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="40" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="44" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="48" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="30" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="34" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="37" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="41" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="45" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="49" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="27" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="31" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="11" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="38" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="42" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="46" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="19" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Datum" xfId="9"/>
+    <cellStyle name="Dezimal [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="18" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="26" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="25" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="15" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="18" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="21" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="24" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="19" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Tiefe 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Tiefe 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="26" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Notiz" xfId="24" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Tiefe 1" xfId="50"/>
+    <cellStyle name="Tiefe 2" xfId="51"/>
+    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="21" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Währung" xfId="12" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Währung [0]" xfId="13" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="23" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="22" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="80">
     <dxf>
@@ -1510,6 +1545,112 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2468,113 +2609,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2718,12 +2752,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="79"/>
       <tableStyleElement type="headerRow" dxfId="78"/>
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="76"/>
       <tableStyleElement type="headerRow" dxfId="75"/>
       <tableStyleElement type="totalRow" dxfId="74"/>
@@ -2826,9 +2860,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-AT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2875,7 +2909,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8F60-46C1-86D0-BB2F6B41B8BD}"/>
               </c:ext>
@@ -2899,7 +2933,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8F60-46C1-86D0-BB2F6B41B8BD}"/>
               </c:ext>
@@ -2923,7 +2957,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-46FD-4C5C-A1C0-E4F5082E896A}"/>
               </c:ext>
@@ -2947,7 +2981,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-46FD-4C5C-A1C0-E4F5082E896A}"/>
               </c:ext>
@@ -2996,7 +3030,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-AT"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3020,7 +3054,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3054,7 +3088,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6805555555555558</c:v>
+                  <c:v>1.541666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -3065,7 +3099,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-8F60-46C1-86D0-BB2F6B41B8BD}"/>
             </c:ext>
@@ -3123,7 +3157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3169,7 +3203,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3822,7 +3856,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$H$3" horiz="1" max="365" page="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$H$3" horiz="1" max="365" page="2" val="167"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3832,31 +3866,28 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6149" name="Scrollleiste 5" descr="Scroll bar to scroll through the Ghantt project timeline." hidden="1">
+            <xdr:cNvPr id="6149" name="Scrollleiste 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6149"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3864,12 +3895,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3900,7 +3925,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,8 +3949,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Meilensteine" displayName="Meilensteine" ref="B6:J54">
-  <autoFilter ref="B6:J54" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Meilensteine" displayName="Meilensteine" ref="B6:J54">
+  <autoFilter ref="B6:J54">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3937,17 +3962,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aufwandsschätzung[h]" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="tatsächlicher Aufwand[h]" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="1" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="Aufwandsschätzung[h]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" name="tatsächlicher Aufwand[h]" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategorie" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fortschritt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{70FDCF50-D5DA-4C67-AC0E-D6EB8BCCF097}" name="Ende" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Datum"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="54"/>
+    <tableColumn id="2" name="Kategorie" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" name="Zugewiesen an" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" name="Fortschritt"/>
+    <tableColumn id="5" name="Start" totalsRowDxfId="11"/>
+    <tableColumn id="9" name="Ende" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Datum"/>
+    <tableColumn id="6" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4213,40 +4238,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="67" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="67" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4286,7 +4311,7 @@
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4305,7 +4330,7 @@
       <c r="J2" s="84"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -4315,12 +4340,12 @@
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="41">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="I3" s="73"/>
       <c r="L3" s="40" t="str">
         <f ca="1">TEXT(L4,"MMMM")</f>
-        <v>September</v>
+        <v>March</v>
       </c>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
@@ -4340,7 +4365,7 @@
       <c r="Y3" s="40"/>
       <c r="Z3" s="40" t="str">
         <f ca="1">IF(OR(TEXT(Z4,"MMMM")=S3,TEXT(Z4,"MMMM")=L3),"",TEXT(Z4,"MMMM"))</f>
-        <v>October</v>
+        <v/>
       </c>
       <c r="AA3" s="40"/>
       <c r="AB3" s="40"/>
@@ -4360,7 +4385,7 @@
       <c r="AM3" s="40"/>
       <c r="AN3" s="40" t="str">
         <f ca="1">IF(OR(TEXT(AN4,"MMMM")=AG3,TEXT(AN4,"MMMM")=Z3,TEXT(AN4,"MMMM")=S3,TEXT(AN4,"MMMM")=L3),"",TEXT(AN4,"MMMM"))</f>
-        <v/>
+        <v>April</v>
       </c>
       <c r="AO3" s="40"/>
       <c r="AP3" s="40"/>
@@ -4380,7 +4405,7 @@
       <c r="BA3" s="40"/>
       <c r="BB3" s="40" t="str">
         <f ca="1">IF(OR(TEXT(BB4,"MMMM")=AU3,TEXT(BB4,"MMMM")=AN3,TEXT(BB4,"MMMM")=AG3,TEXT(BB4,"MMMM")=Z3),"",TEXT(BB4,"MMMM"))</f>
-        <v>November</v>
+        <v/>
       </c>
       <c r="BC3" s="40"/>
       <c r="BD3" s="40"/>
@@ -4399,7 +4424,7 @@
       <c r="BN3" s="40"/>
       <c r="BO3" s="40"/>
     </row>
-    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4415,230 +4440,230 @@
       <c r="K4" s="81"/>
       <c r="L4" s="42">
         <f ca="1">IFERROR(Projekt_Start+Scroll_Schrittweite,TODAY())</f>
-        <v>44097</v>
+        <v>44264</v>
       </c>
       <c r="M4" s="43">
         <f ca="1">L4+1</f>
-        <v>44098</v>
+        <v>44265</v>
       </c>
       <c r="N4" s="43">
         <f t="shared" ref="N4:BA4" ca="1" si="0">M4+1</f>
-        <v>44099</v>
+        <v>44266</v>
       </c>
       <c r="O4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44100</v>
+        <v>44267</v>
       </c>
       <c r="P4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44101</v>
+        <v>44268</v>
       </c>
       <c r="Q4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44102</v>
+        <v>44269</v>
       </c>
       <c r="R4" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44103</v>
+        <v>44270</v>
       </c>
       <c r="S4" s="42">
         <f ca="1">R4+1</f>
-        <v>44104</v>
+        <v>44271</v>
       </c>
       <c r="T4" s="43">
         <f ca="1">S4+1</f>
-        <v>44105</v>
+        <v>44272</v>
       </c>
       <c r="U4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44106</v>
+        <v>44273</v>
       </c>
       <c r="V4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44107</v>
+        <v>44274</v>
       </c>
       <c r="W4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44108</v>
+        <v>44275</v>
       </c>
       <c r="X4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44109</v>
+        <v>44276</v>
       </c>
       <c r="Y4" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44110</v>
+        <v>44277</v>
       </c>
       <c r="Z4" s="42">
         <f ca="1">Y4+1</f>
-        <v>44111</v>
+        <v>44278</v>
       </c>
       <c r="AA4" s="43">
         <f ca="1">Z4+1</f>
-        <v>44112</v>
+        <v>44279</v>
       </c>
       <c r="AB4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44113</v>
+        <v>44280</v>
       </c>
       <c r="AC4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44114</v>
+        <v>44281</v>
       </c>
       <c r="AD4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44115</v>
+        <v>44282</v>
       </c>
       <c r="AE4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44116</v>
+        <v>44283</v>
       </c>
       <c r="AF4" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44117</v>
+        <v>44284</v>
       </c>
       <c r="AG4" s="42">
         <f ca="1">AF4+1</f>
-        <v>44118</v>
+        <v>44285</v>
       </c>
       <c r="AH4" s="43">
         <f ca="1">AG4+1</f>
-        <v>44119</v>
+        <v>44286</v>
       </c>
       <c r="AI4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44120</v>
+        <v>44287</v>
       </c>
       <c r="AJ4" s="43">
         <f ca="1">AI4+1</f>
-        <v>44121</v>
+        <v>44288</v>
       </c>
       <c r="AK4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44122</v>
+        <v>44289</v>
       </c>
       <c r="AL4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44123</v>
+        <v>44290</v>
       </c>
       <c r="AM4" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44124</v>
+        <v>44291</v>
       </c>
       <c r="AN4" s="42">
         <f ca="1">AM4+1</f>
-        <v>44125</v>
+        <v>44292</v>
       </c>
       <c r="AO4" s="43">
         <f ca="1">AN4+1</f>
-        <v>44126</v>
+        <v>44293</v>
       </c>
       <c r="AP4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44127</v>
+        <v>44294</v>
       </c>
       <c r="AQ4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44128</v>
+        <v>44295</v>
       </c>
       <c r="AR4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44129</v>
+        <v>44296</v>
       </c>
       <c r="AS4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44130</v>
+        <v>44297</v>
       </c>
       <c r="AT4" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44131</v>
+        <v>44298</v>
       </c>
       <c r="AU4" s="42">
         <f ca="1">AT4+1</f>
-        <v>44132</v>
+        <v>44299</v>
       </c>
       <c r="AV4" s="43">
         <f ca="1">AU4+1</f>
-        <v>44133</v>
+        <v>44300</v>
       </c>
       <c r="AW4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44134</v>
+        <v>44301</v>
       </c>
       <c r="AX4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44135</v>
+        <v>44302</v>
       </c>
       <c r="AY4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44136</v>
+        <v>44303</v>
       </c>
       <c r="AZ4" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>44137</v>
+        <v>44304</v>
       </c>
       <c r="BA4" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44138</v>
+        <v>44305</v>
       </c>
       <c r="BB4" s="42">
         <f ca="1">BA4+1</f>
-        <v>44139</v>
+        <v>44306</v>
       </c>
       <c r="BC4" s="43">
         <f ca="1">BB4+1</f>
-        <v>44140</v>
+        <v>44307</v>
       </c>
       <c r="BD4" s="43">
         <f t="shared" ref="BD4:BH4" ca="1" si="1">BC4+1</f>
-        <v>44141</v>
+        <v>44308</v>
       </c>
       <c r="BE4" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>44142</v>
+        <v>44309</v>
       </c>
       <c r="BF4" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>44143</v>
+        <v>44310</v>
       </c>
       <c r="BG4" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>44144</v>
+        <v>44311</v>
       </c>
       <c r="BH4" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>44145</v>
+        <v>44312</v>
       </c>
       <c r="BI4" s="42">
         <f ca="1">BH4+1</f>
-        <v>44146</v>
+        <v>44313</v>
       </c>
       <c r="BJ4" s="43">
         <f ca="1">BI4+1</f>
-        <v>44147</v>
+        <v>44314</v>
       </c>
       <c r="BK4" s="43">
         <f t="shared" ref="BK4:BO4" ca="1" si="2">BJ4+1</f>
-        <v>44148</v>
+        <v>44315</v>
       </c>
       <c r="BL4" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>44149</v>
+        <v>44316</v>
       </c>
       <c r="BM4" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>44150</v>
+        <v>44317</v>
       </c>
       <c r="BN4" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>44151</v>
+        <v>44318</v>
       </c>
       <c r="BO4" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4709,7 +4734,7 @@
       <c r="BN5" s="47"/>
       <c r="BO5" s="48"/>
     </row>
-    <row r="6" spans="1:67" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -4743,7 +4768,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="22" t="str">
         <f t="shared" ref="L6:AQ6" ca="1" si="3">LEFT(TEXT(L4,"TTT"),1)</f>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="M6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4751,19 +4776,19 @@
       </c>
       <c r="N6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="P6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="R6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4771,7 +4796,7 @@
       </c>
       <c r="S6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="T6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4779,19 +4804,19 @@
       </c>
       <c r="U6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="W6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="X6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Y6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4799,7 +4824,7 @@
       </c>
       <c r="Z6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AA6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4807,19 +4832,19 @@
       </c>
       <c r="AB6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AC6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AD6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AE6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AF6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4827,7 +4852,7 @@
       </c>
       <c r="AG6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AH6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4835,19 +4860,19 @@
       </c>
       <c r="AI6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AJ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AK6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AL6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AM6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4855,7 +4880,7 @@
       </c>
       <c r="AN6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AO6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4863,19 +4888,19 @@
       </c>
       <c r="AP6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AQ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AR6" s="22" t="str">
         <f t="shared" ref="AR6:BO6" ca="1" si="4">LEFT(TEXT(AR4,"TTT"),1)</f>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AS6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AT6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4883,7 +4908,7 @@
       </c>
       <c r="AU6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AV6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4891,19 +4916,19 @@
       </c>
       <c r="AW6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AX6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AY6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AZ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BA6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4911,7 +4936,7 @@
       </c>
       <c r="BB6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BC6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4919,19 +4944,19 @@
       </c>
       <c r="BD6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BE6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BF6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BG6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BH6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4939,7 +4964,7 @@
       </c>
       <c r="BI6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BJ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4947,19 +4972,19 @@
       </c>
       <c r="BK6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BL6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BM6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BN6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BO6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5039,7 +5064,7 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
     </row>
-    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -7452,9 +7477,9 @@
       <c r="C24" s="68">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D24" s="59" t="str">
+      <c r="D24" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.65972222222222221</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>11</v>
@@ -7629,9 +7654,9 @@
       <c r="C26" s="78">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D26" s="59" t="str">
+      <c r="D26" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -7884,9 +7909,9 @@
       <c r="C29" s="78">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D29" s="59" t="str">
+      <c r="D29" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.22222222222222232</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>11</v>
@@ -9773,7 +9798,7 @@
       </c>
       <c r="D47" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.91666666666666696</v>
+        <v>0.82638888888888928</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -9858,7 +9883,7 @@
       </c>
       <c r="D48" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.4166666666666672</v>
+        <v>1.2708333333333337</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>11</v>
@@ -9933,7 +9958,7 @@
       <c r="BN48" s="35"/>
       <c r="BO48" s="35"/>
     </row>
-    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="53" t="s">
         <v>62</v>
@@ -10017,7 +10042,7 @@
       <c r="C50" s="78"/>
       <c r="D50" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.18055555555555558</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>11</v>
@@ -10339,9 +10364,9 @@
       <c r="C52" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D52" s="59" t="str">
+      <c r="D52" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>11</v>
@@ -10680,7 +10705,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>3.2638888888888893</v>
+        <v>4.1250000000000009</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10691,7 +10716,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.2263969171483623</v>
+        <v>0.28612716763005791</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -10754,7 +10779,7 @@
       <c r="BN54" s="35"/>
       <c r="BO54" s="35"/>
     </row>
-    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
@@ -10827,7 +10852,7 @@
       <c r="BN55" s="35"/>
       <c r="BO55" s="35"/>
     </row>
-    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>8</v>
       </c>
@@ -10925,166 +10950,166 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO56">
-    <cfRule type="expression" dxfId="53" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>AND(TODAY()&gt;=L$4,TODAY()&lt;M$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:AP3">
-    <cfRule type="expression" dxfId="52" priority="10">
+    <cfRule type="expression" dxfId="66" priority="10">
       <formula>L$4&lt;=EOMONTH($L$4,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BO3">
-    <cfRule type="expression" dxfId="51" priority="6">
+    <cfRule type="expression" dxfId="65" priority="6">
       <formula>AND(M$4&lt;=EOMONTH($L$4,2),M$4&gt;EOMONTH($L$4,0),M$4&gt;EOMONTH($L$4,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:BO3">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>AND(L$4&lt;=EOMONTH($L$4,1),L$4&gt;EOMONTH($L$4,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:BO20 L25:BO31 L35:BO53">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="27" stopIfTrue="1">
       <formula>AND($E7="Geringes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="46" stopIfTrue="1">
       <formula>AND($E7="Hohes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="64" stopIfTrue="1">
       <formula>AND($E7="Im Plan",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
       <formula>AND($E7="Mittleres Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="66" stopIfTrue="1">
       <formula>AND(LEN($E7)=0,L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:BO56">
-    <cfRule type="expression" dxfId="44" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="75" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="76" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="FEHLER">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="FEHLER">
       <formula>NOT(ISERROR(SEARCH("FEHLER",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:BO55">
-    <cfRule type="expression" dxfId="37" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="247" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="248" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="249" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="250" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="251" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:BO24">
-    <cfRule type="expression" dxfId="32" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="288" stopIfTrue="1">
       <formula>AND($E24="Geringes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="289" stopIfTrue="1">
       <formula>AND($E24="Hohes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="290" stopIfTrue="1">
       <formula>AND($E24="Im Plan",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="291" stopIfTrue="1">
       <formula>AND($E24="Mittleres Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="292" stopIfTrue="1">
       <formula>AND(LEN($E24)=0,L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO23">
-    <cfRule type="expression" dxfId="27" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="352" stopIfTrue="1">
       <formula>AND($E21="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="353" stopIfTrue="1">
       <formula>AND($E21="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="354" stopIfTrue="1">
       <formula>AND($E21="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="355" stopIfTrue="1">
       <formula>AND($E21="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="356" stopIfTrue="1">
       <formula>AND(LEN($E21)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:BO54">
-    <cfRule type="expression" dxfId="22" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="407" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="408" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="409" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="410" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="411" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:BO33">
-    <cfRule type="expression" dxfId="17" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="418" stopIfTrue="1">
       <formula>AND($E34="Geringes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="419" stopIfTrue="1">
       <formula>AND($E34="Hohes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="420" stopIfTrue="1">
       <formula>AND($E34="Im Plan",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="421" stopIfTrue="1">
       <formula>AND($E34="Mittleres Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="422" stopIfTrue="1">
       <formula>AND(LEN($E34)=0,L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:BO34">
-    <cfRule type="expression" dxfId="12" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="423" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="424" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="425" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="426" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="427" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11103,13 +11128,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="H3:I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="H3:I3">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E54" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E54">
       <formula1>"Ziel,Meilenstein,Im Plan, Geringes Risiko, Mittleres Risiko, Hohes Risiko"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E8">
       <formula1>"Ziel,Meilenstein,Im Plan, Geringes Risiko, Mittleres Risiko, Hohes Risiko"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11131,15 +11156,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>67</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11230,7 +11255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -11238,20 +11263,20 @@
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="19"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>39</v>
       </c>
@@ -11271,7 +11296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -11296,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -11321,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -11346,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -11371,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -11396,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -11421,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -11446,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -11471,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -11496,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -11521,7 +11546,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -11546,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -11571,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -11596,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -11621,7 +11646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -11631,7 +11656,7 @@
       </c>
       <c r="D18" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B18,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="E18" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B18,Michi!F:F)</f>
@@ -11643,10 +11668,10 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.65972222222222221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -11656,7 +11681,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11668,10 +11693,10 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -11696,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -11721,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>79</v>
       </c>
@@ -11731,7 +11756,7 @@
       </c>
       <c r="D22" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B22,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.22222222222222232</v>
       </c>
       <c r="E22" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B22,Michi!F:F)</f>
@@ -11743,10 +11768,10 @@
       </c>
       <c r="G22" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.22222222222222232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
@@ -11771,7 +11796,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -11796,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -11821,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -11846,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -11871,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -11896,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>87</v>
       </c>
@@ -11921,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -11946,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -11971,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -11996,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>58</v>
       </c>
@@ -12021,7 +12046,7 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>59</v>
       </c>
@@ -12046,7 +12071,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
         <v>60</v>
       </c>
@@ -12071,7 +12096,7 @@
         <v>0.12499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -12096,7 +12121,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -12106,7 +12131,7 @@
       </c>
       <c r="D37" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B37,Roman!F:F)</f>
-        <v>0.25000000000000011</v>
+        <v>0.15972222222222232</v>
       </c>
       <c r="E37" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B37,Michi!F:F)</f>
@@ -12118,10 +12143,10 @@
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.82638888888888928</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>64</v>
       </c>
@@ -12131,7 +12156,7 @@
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
-        <v>0.3541666666666668</v>
+        <v>0.20833333333333343</v>
       </c>
       <c r="E38" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B38,Michi!F:F)</f>
@@ -12143,10 +12168,10 @@
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>1.4166666666666672</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.2708333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -12171,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -12181,7 +12206,7 @@
       </c>
       <c r="D40" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B40,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E40" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B40,Michi!F:F)</f>
@@ -12193,10 +12218,10 @@
       </c>
       <c r="G40" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>72</v>
       </c>
@@ -12221,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>95</v>
       </c>
@@ -12231,7 +12256,7 @@
       </c>
       <c r="D42" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B42,Roman!F:F)</f>
-        <v>7.6388888888888895E-2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B42,Michi!F:F)</f>
@@ -12243,10 +12268,10 @@
       </c>
       <c r="G42" s="67">
         <f t="shared" si="0"/>
-        <v>0.18055555555555558</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>99</v>
       </c>
@@ -12271,7 +12296,7 @@
         <v>0.14930555555555555</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>32</v>
       </c>
@@ -12281,7 +12306,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>0.6805555555555558</v>
+        <v>1.541666666666667</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12293,10 +12318,10 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>3.2638888888888897</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -12306,7 +12331,7 @@
       </c>
       <c r="D45" s="61" t="str">
         <f>IF(D44=Roman!H2,"OK","FEHLER")</f>
-        <v>OK</v>
+        <v>FEHLER</v>
       </c>
       <c r="E45" s="61" t="str">
         <f>IF(E44=Michi!H2,"OK","FEHLER")</f>
@@ -12318,7 +12343,7 @@
       </c>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
     </row>
   </sheetData>
@@ -12361,22 +12386,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -12396,7 +12421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -12421,7 +12446,7 @@
         <v>0.87847222222222254</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="64">
         <v>44097</v>
       </c>
@@ -12438,7 +12463,7 @@
       </c>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>44100</v>
       </c>
@@ -12456,7 +12481,7 @@
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -12474,7 +12499,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -12492,7 +12517,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44103</v>
       </c>
@@ -12508,7 +12533,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -12526,7 +12551,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44105</v>
       </c>
@@ -12542,7 +12567,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44107</v>
       </c>
@@ -12618,7 +12643,7 @@
       </c>
       <c r="J13" s="57"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44113</v>
       </c>
@@ -12635,7 +12660,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <v>44115</v>
       </c>
@@ -12653,7 +12678,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -12671,7 +12696,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <v>44116</v>
       </c>
@@ -12687,7 +12712,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>44121</v>
       </c>
@@ -12703,7 +12728,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <v>44123</v>
       </c>
@@ -12721,7 +12746,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="71">
         <v>44125</v>
       </c>
@@ -12739,7 +12764,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>44112</v>
       </c>
@@ -12755,7 +12780,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>44127</v>
       </c>
@@ -12773,7 +12798,7 @@
         <v>3.4722222222222265E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -12782,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -12791,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -12800,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -12809,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -12818,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -12827,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -12836,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -12845,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -12854,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -12863,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -12872,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -12881,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -12890,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -12899,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -12908,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -12917,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -12926,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -12935,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -12944,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
@@ -12953,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -12962,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="64"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -12971,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -12980,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -12989,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="64"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -12998,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
@@ -13007,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
@@ -13016,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
@@ -13025,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
@@ -13034,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
@@ -13043,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
@@ -13052,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -13061,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
@@ -13070,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="64"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
@@ -13079,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
@@ -13088,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="64"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
@@ -13097,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="64"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
@@ -13106,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="64"/>
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
@@ -13115,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="64"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
@@ -13124,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="64"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
@@ -13133,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="64"/>
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
@@ -13142,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="64"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
@@ -13151,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="64"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
@@ -13160,7 +13185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="64"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
@@ -13169,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="64"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
@@ -13178,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
@@ -13187,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="64"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
@@ -13196,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="64"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
@@ -13205,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="64"/>
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
@@ -13214,7 +13239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="64"/>
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
@@ -13223,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="64"/>
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
@@ -13232,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="64"/>
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
@@ -13241,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="64"/>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
@@ -13250,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="64"/>
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
@@ -13259,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
@@ -13268,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="64"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -13277,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
@@ -13286,229 +13311,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" ref="F84:F117" si="4">E84-D84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13521,24 +13546,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D607740-3075-4F99-B3D6-6E582475898F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -13559,7 +13584,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -13576,18 +13601,18 @@
         <v>0.4375</v>
       </c>
       <c r="F2" s="55">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F7" si="0">E2-D2</f>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.6805555555555558</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -13601,13 +13626,13 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F3" s="55">
-        <f t="shared" ref="F3:F68" si="0">E3-D3</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444531E-2</v>
       </c>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -13629,919 +13654,1002 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>63</v>
+        <v>113</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="D5" s="55">
-        <v>0.39583333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E5" s="55">
-        <v>0.4375</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F5" s="55">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
-        <v>44105</v>
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="64">
+        <v>44103</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="55">
-        <v>0.53472222222222221</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E6" s="55">
-        <v>0.57638888888888895</v>
+        <v>0.4375</v>
       </c>
       <c r="F6" s="55">
         <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="71">
-        <v>44110</v>
+        <v>44105</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D7" s="55">
-        <v>0.67708333333333337</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E7" s="55">
-        <v>0.79166666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F7" s="55">
         <f t="shared" si="0"/>
-        <v>0.11458333333333326</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44110</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+        <v>92</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F8" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="71">
-        <v>44112</v>
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="64">
+        <v>44118</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="D9" s="55">
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="55">
-        <v>0.625</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F9" s="55">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <f>E9-D9</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F10" s="55">
+        <f>E10-D10</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="71">
+        <v>44124</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F11" s="55">
+        <f>E11-D11</f>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="71">
+        <v>44126</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F12" s="55">
+        <f>E12-D12</f>
+        <v>0.125</v>
+      </c>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="71">
+        <v>44127</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="55">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E10" s="55">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F10" s="55">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="71">
-        <v>44116</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="F11" s="55">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="71">
-        <v>44123</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="55">
+      <c r="C13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E13" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E12" s="55">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="F12" s="55">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666741E-2</v>
-      </c>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="71">
-        <v>44123</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
       <c r="F13" s="55">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
-        <v>44125</v>
+        <v>44133</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="55">
+        <f t="shared" ref="F14:F19" si="1">E14-D14</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="64">
+        <v>44134</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F15" s="55">
+        <f t="shared" si="1"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="64">
+        <v>44137</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="F16" s="55">
+        <f t="shared" si="1"/>
+        <v>0.20138888888888884</v>
+      </c>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="55">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E14" s="55">
-        <v>0.625</v>
-      </c>
-      <c r="F14" s="55">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="64">
-        <v>44127</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="55">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="E15" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="55">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222265E-2</v>
-      </c>
-      <c r="G15" s="55"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="55"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="D17" s="55">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F17" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="64">
+        <v>44143</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F18" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
+        <v>44145</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F19" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="64">
+        <v>44150</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E20" s="55">
+        <v>1</v>
+      </c>
       <c r="F20" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F20:F68" si="2">E20-D20</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="55"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64"/>
       <c r="F42" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
-        <f t="shared" ref="F69:F105" si="1">E69-D69</f>
+        <f t="shared" ref="F69:F105" si="3">E69-D69</f>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14551,24 +14659,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A83429-E426-4DF5-ADF8-C1138D6006D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -14589,7 +14697,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -14617,7 +14725,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -14637,7 +14745,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -14659,7 +14767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="71">
         <v>44102</v>
       </c>
@@ -14677,7 +14785,7 @@
       <c r="G5" s="55"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -14697,7 +14805,7 @@
       <c r="G6" s="55"/>
       <c r="J6" s="57"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64">
         <v>44104</v>
       </c>
@@ -14715,7 +14823,7 @@
       <c r="G7" s="55"/>
       <c r="J7" s="57"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -14734,7 +14842,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44110</v>
       </c>
@@ -14756,7 +14864,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44110</v>
       </c>
@@ -14773,7 +14881,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44081</v>
       </c>
@@ -14790,7 +14898,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -14809,7 +14917,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44115</v>
       </c>
@@ -14828,7 +14936,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44115</v>
       </c>
@@ -14845,7 +14953,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <v>44116</v>
       </c>
@@ -14862,7 +14970,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -14881,7 +14989,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <v>44123</v>
       </c>
@@ -14900,7 +15008,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <v>44123</v>
       </c>
@@ -14917,7 +15025,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <v>44124</v>
       </c>
@@ -14934,7 +15042,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="64">
         <v>44124</v>
       </c>
@@ -14948,7 +15056,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>44125</v>
       </c>
@@ -14967,7 +15075,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>44127</v>
       </c>
@@ -14986,7 +15094,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -14996,7 +15104,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -15006,7 +15114,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -15016,7 +15124,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -15026,7 +15134,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -15036,7 +15144,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -15047,7 +15155,7 @@
       <c r="G28" s="55"/>
       <c r="I28" s="67"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -15057,7 +15165,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -15067,7 +15175,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -15077,7 +15185,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -15087,7 +15195,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -15097,7 +15205,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -15107,7 +15215,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -15117,7 +15225,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -15127,7 +15235,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -15137,7 +15245,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -15147,7 +15255,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -15157,7 +15265,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -15167,7 +15275,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -15177,7 +15285,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
@@ -15187,7 +15295,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -15197,7 +15305,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="64"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -15207,7 +15315,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -15217,7 +15325,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -15227,7 +15335,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="64"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -15237,7 +15345,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
       <c r="F48" s="55">
         <f t="shared" si="1"/>
@@ -15245,434 +15353,434 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" s="55">
-        <f t="shared" ref="F53:F84" si="2">E53-D53</f>
+        <f t="shared" ref="F53:F74" si="2">E53-D53</f>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" ref="F75:F106" si="3">E75-D75</f>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G105" s="55"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107" s="55">
         <f t="shared" ref="F107:F110" si="4">E107-D107</f>
         <v>0</v>
       </c>
       <c r="G107" s="55"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109" s="55"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -15684,24 +15792,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -15722,7 +15830,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="71">
         <v>44100</v>
       </c>
@@ -15747,7 +15855,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44101</v>
       </c>
@@ -15765,7 +15873,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
         <v>44101</v>
       </c>
@@ -15785,7 +15893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="71">
         <v>44101</v>
       </c>
@@ -15804,7 +15912,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="71">
         <v>43948</v>
       </c>
@@ -15821,7 +15929,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44101</v>
       </c>
@@ -15839,7 +15947,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="64">
         <v>44103</v>
       </c>
@@ -15858,7 +15966,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44110</v>
       </c>
@@ -15880,7 +15988,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44112</v>
       </c>
@@ -15899,7 +16007,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44115</v>
       </c>
@@ -15918,7 +16026,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44116</v>
       </c>
@@ -15937,7 +16045,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44123</v>
       </c>
@@ -15956,7 +16064,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="64">
         <v>44124</v>
       </c>
@@ -15973,7 +16081,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <v>44125</v>
       </c>
@@ -15992,7 +16100,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="64">
         <v>44127</v>
       </c>
@@ -16011,7 +16119,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>44130</v>
       </c>
@@ -16028,7 +16136,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
@@ -16038,7 +16146,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -16048,7 +16156,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
@@ -16058,7 +16166,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -16068,7 +16176,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -16078,7 +16186,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -16089,7 +16197,7 @@
       <c r="G23" s="55"/>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -16099,7 +16207,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -16109,7 +16217,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -16119,7 +16227,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -16129,7 +16237,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -16139,7 +16247,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -16149,7 +16257,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -16159,7 +16267,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -16169,7 +16277,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -16179,7 +16287,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -16189,7 +16297,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -16199,7 +16307,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -16209,7 +16317,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -16219,7 +16327,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -16229,7 +16337,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -16239,7 +16347,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -16249,7 +16357,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -16259,7 +16367,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -16269,7 +16377,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="F42" s="55">
         <f t="shared" si="0"/>
@@ -16277,434 +16385,434 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F43" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F44" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F45" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F46" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F51" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F52" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F53" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F54" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F55" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F56" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F57" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F58" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" ref="F69:F70" si="1">E69-D69</f>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" ref="F71:F104" si="2">E71-D71</f>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -16718,40 +16826,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>21</v>
       </c>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50020FC2-227E-4220-9180-801F05AA6878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="415"/>
+    <workbookView xWindow="3945" yWindow="1215" windowWidth="28800" windowHeight="15435" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="Projekt_Start">Gantt!$H$2</definedName>
     <definedName name="Scroll_Schrittweite">Gantt!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -410,11 +412,14 @@
   <si>
     <t>Genric Repository und Tests</t>
   </si>
+  <si>
+    <t>Entities überarbeiten</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1438,21 +1443,21 @@
     <cellStyle name="Akzent6" xfId="46" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Ausgabe" xfId="19" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Datum" xfId="9"/>
+    <cellStyle name="Datum" xfId="9" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Dezimal [0]" xfId="10" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Eingabe" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="26" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="25" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="15" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="24" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Tiefe 1" xfId="50"/>
-    <cellStyle name="Tiefe 2" xfId="51"/>
+    <cellStyle name="Tiefe 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Tiefe 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
@@ -1463,7 +1468,7 @@
     <cellStyle name="Währung [0]" xfId="13" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Warnender Text" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="80">
     <dxf>
@@ -2752,12 +2757,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="79"/>
       <tableStyleElement type="headerRow" dxfId="78"/>
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="76"/>
       <tableStyleElement type="headerRow" dxfId="75"/>
       <tableStyleElement type="totalRow" dxfId="74"/>
@@ -2860,9 +2865,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2909,7 +2914,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8F60-46C1-86D0-BB2F6B41B8BD}"/>
               </c:ext>
@@ -2933,7 +2938,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8F60-46C1-86D0-BB2F6B41B8BD}"/>
               </c:ext>
@@ -2957,7 +2962,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-46FD-4C5C-A1C0-E4F5082E896A}"/>
               </c:ext>
@@ -2981,7 +2986,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-46FD-4C5C-A1C0-E4F5082E896A}"/>
               </c:ext>
@@ -3030,7 +3035,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3054,7 +3059,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3088,7 +3093,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.541666666666667</c:v>
+                  <c:v>1.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -3099,7 +3104,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-8F60-46C1-86D0-BB2F6B41B8BD}"/>
             </c:ext>
@@ -3157,7 +3162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3203,7 +3208,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3878,16 +3883,19 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6149" name="Scrollleiste 5" hidden="1">
+            <xdr:cNvPr id="6149" name="Scrollleiste 5" descr="Scroll bar to scroll through the Ghantt project timeline." hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6149"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3895,6 +3903,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3925,7 +3939,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3949,8 +3963,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Meilensteine" displayName="Meilensteine" ref="B6:J54">
-  <autoFilter ref="B6:J54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Meilensteine" displayName="Meilensteine" ref="B6:J54">
+  <autoFilter ref="B6:J54" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3962,17 +3976,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="Aufwandsschätzung[h]" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" name="tatsächlicher Aufwand[h]" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aufwandsschätzung[h]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="tatsächlicher Aufwand[h]" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Kategorie" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" name="Zugewiesen an" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="4" name="Fortschritt"/>
-    <tableColumn id="5" name="Start" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Ende" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Datum"/>
-    <tableColumn id="6" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategorie" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fortschritt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ende" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Datum"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4238,20 +4252,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BO57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
@@ -7656,7 +7670,7 @@
       </c>
       <c r="D26" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -10034,7 +10048,7 @@
       <c r="BN49" s="35"/>
       <c r="BO49" s="35"/>
     </row>
-    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
         <v>95</v>
@@ -10285,7 +10299,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="52" t="s">
         <v>65</v>
@@ -10356,7 +10370,7 @@
       <c r="BN51" s="35"/>
       <c r="BO51" s="35"/>
     </row>
-    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="53" t="s">
         <v>66</v>
@@ -10441,7 +10455,7 @@
       <c r="BN52" s="35"/>
       <c r="BO52" s="35"/>
     </row>
-    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="53" t="s">
         <v>72</v>
@@ -10694,7 +10708,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="66" t="s">
         <v>36</v>
@@ -10705,7 +10719,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>4.1250000000000009</v>
+        <v>4.2500000000000018</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10716,7 +10730,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.28612716763005791</v>
+        <v>0.29479768786127186</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -10923,7 +10937,7 @@
       <c r="BN56" s="34"/>
       <c r="BO56" s="34"/>
     </row>
-    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="6"/>
       <c r="K57" s="4"/>
     </row>
@@ -11128,13 +11142,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="H3:I3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="H3:I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E9:E54" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Ziel,Meilenstein,Im Plan, Geringes Risiko, Mittleres Risiko, Hohes Risiko"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Ziel,Meilenstein,Im Plan, Geringes Risiko, Mittleres Risiko, Hohes Risiko"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11255,7 +11269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -11681,7 +11695,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11693,7 +11707,7 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12306,7 +12320,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>1.541666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12318,7 +12332,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>4.125</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12386,7 +12400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -13546,11 +13560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13607,7 +13621,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>1.666666666666667</v>
+        <v>1.791666666666667</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14017,12 +14031,24 @@
       <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="64">
+        <v>44137</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="E23" s="55">
+        <v>1</v>
+      </c>
       <c r="F23" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G23" s="55"/>
     </row>
@@ -14659,7 +14685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15792,7 +15818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
@@ -16385,7 +16411,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F43" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16826,7 +16852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16859,7 +16885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
         <v>21</v>
       </c>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50020FC2-227E-4220-9180-801F05AA6878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9C0BF-06BB-46C0-BC81-45534941D349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="1215" windowWidth="28800" windowHeight="15435" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Gantt Info" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Heute" localSheetId="0">TODAY()</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
-    <definedName name="Heute" localSheetId="0">TODAY()</definedName>
     <definedName name="Projekt_Start">Gantt!$H$2</definedName>
     <definedName name="Scroll_Schrittweite">Gantt!$H$3</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="117">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Entities überarbeiten</t>
+  </si>
+  <si>
+    <t>Benutzer Daten/ Authorisierung</t>
   </si>
 </sst>
 </file>
@@ -1417,57 +1420,57 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="20 % - Akzent1" xfId="28" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="32" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="35" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="39" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="43" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="47" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="29" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="33" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="36" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="40" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="44" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="48" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="30" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="34" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="37" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="41" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="45" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="27" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="31" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="11" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="38" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="42" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="46" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="19" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="32" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="35" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="39" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="43" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="47" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="29" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="33" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="36" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="40" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="30" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="34" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="37" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="41" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="27" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="31" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="11" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="38" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="42" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="22" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="12" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="13" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Datum" xfId="9" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Dezimal [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="18" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="26" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="25" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="15" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="25" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="15" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="18" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="21" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="24" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="16" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="24" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="19" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Tiefe 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Tiefe 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="14" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Währung" xfId="12" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Währung [0]" xfId="13" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="23" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="22" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="26" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="80">
@@ -2867,7 +2870,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3093,7 +3096,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.666666666666667</c:v>
+                  <c:v>1.8125000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -4270,7 +4273,7 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
@@ -7670,7 +7673,7 @@
       </c>
       <c r="D26" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.25</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -10719,7 +10722,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>4.2500000000000018</v>
+        <v>4.3958333333333348</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10730,7 +10733,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.29479768786127186</v>
+        <v>0.30491329479768803</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11277,7 +11280,7 @@
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
@@ -11695,7 +11698,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>0.25</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11707,7 +11710,7 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.39583333333333337</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12320,7 +12323,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>1.666666666666667</v>
+        <v>1.8125000000000004</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12332,7 +12335,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.3958333333333339</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12407,7 +12410,7 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
@@ -13564,10 +13567,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
@@ -13621,7 +13624,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>1.791666666666667</v>
+        <v>1.9375000000000004</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14030,9 +14033,9 @@
       <c r="G22" s="55"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>77</v>
@@ -14053,12 +14056,24 @@
       <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="A24" s="64">
+        <v>44175</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0.5625</v>
+      </c>
+      <c r="E24" s="55">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F24" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="G24" s="55"/>
     </row>
@@ -14692,7 +14707,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="19" customWidth="1"/>
@@ -15825,7 +15840,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="19" customWidth="1"/>
@@ -16859,7 +16874,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="8"/>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9C0BF-06BB-46C0-BC81-45534941D349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D92113-6795-4353-97EB-1F07713B36FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1215" windowWidth="28800" windowHeight="15435" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="1215" windowWidth="34455" windowHeight="15435" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="118">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>Benutzer Daten/ Authorisierung</t>
+  </si>
+  <si>
+    <t>Testdaten aus json laden</t>
   </si>
 </sst>
 </file>
@@ -3096,7 +3099,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8125000000000004</c:v>
+                  <c:v>2.104166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -4269,7 +4272,7 @@
   <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -7673,7 +7676,7 @@
       </c>
       <c r="D26" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.39583333333333337</v>
+        <v>0.68750000000000011</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -10722,7 +10725,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>4.3958333333333348</v>
+        <v>4.6875000000000018</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10733,7 +10736,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.30491329479768803</v>
+        <v>0.32514450867052042</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11698,7 +11701,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>0.39583333333333337</v>
+        <v>0.68750000000000011</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11710,7 +11713,7 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>0.39583333333333337</v>
+        <v>0.68750000000000011</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12323,7 +12326,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>1.8125000000000004</v>
+        <v>2.104166666666667</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12335,7 +12338,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>4.3958333333333339</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13567,7 +13570,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13624,7 +13627,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>1.9375000000000004</v>
+        <v>2.229166666666667</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14078,12 +14081,24 @@
       <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="64">
+        <v>44176</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="F25" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29166666666666674</v>
       </c>
       <c r="G25" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D92113-6795-4353-97EB-1F07713B36FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3070BE-565E-4C99-9879-6820914EADD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="1215" windowWidth="34455" windowHeight="15435" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="120">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>Testdaten aus json laden</t>
+  </si>
+  <si>
+    <t>UIRepository erstellt</t>
+  </si>
+  <si>
+    <t>ExerciseRepository.Update überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -3099,7 +3105,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.104166666666667</c:v>
+                  <c:v>2.291666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7759,9 +7765,9 @@
       <c r="C27" s="78">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D27" s="59" t="str">
+      <c r="D27" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.1875</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>11</v>
@@ -8961,7 +8967,7 @@
       <c r="BN40" s="35"/>
       <c r="BO40" s="35"/>
     </row>
-    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="53" t="s">
         <v>56</v>
@@ -9055,7 +9061,7 @@
       <c r="BN41" s="35"/>
       <c r="BO41" s="35"/>
     </row>
-    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="52" t="s">
         <v>57</v>
@@ -9294,7 +9300,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
         <v>58</v>
@@ -9547,7 +9553,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="53" t="s">
         <v>59</v>
@@ -9635,7 +9641,7 @@
       <c r="BN44" s="35"/>
       <c r="BO44" s="35"/>
     </row>
-    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
         <v>60</v>
@@ -9723,7 +9729,7 @@
       <c r="BN45" s="35"/>
       <c r="BO45" s="35"/>
     </row>
-    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="53" t="s">
         <v>61</v>
@@ -9808,7 +9814,7 @@
       <c r="BN46" s="35"/>
       <c r="BO46" s="35"/>
     </row>
-    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
         <v>63</v>
@@ -9893,7 +9899,7 @@
       <c r="BN47" s="35"/>
       <c r="BO47" s="35"/>
     </row>
-    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
         <v>64</v>
@@ -10725,7 +10731,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>4.6875000000000018</v>
+        <v>4.8750000000000018</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10736,7 +10742,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.32514450867052042</v>
+        <v>0.33815028901734123</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11726,7 +11732,7 @@
       </c>
       <c r="D20" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B20,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="E20" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B20,Michi!F:F)</f>
@@ -11738,7 +11744,7 @@
       </c>
       <c r="G20" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12326,7 +12332,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.104166666666667</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12338,7 +12344,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>4.6875</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13570,14 +13576,14 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="19" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="19"/>
     <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="19"/>
@@ -13627,7 +13633,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>2.229166666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14103,22 +14109,46 @@
       <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="A26" s="64">
+        <v>44181</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="F26" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="64">
+        <v>44182</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
       <c r="F27" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G27" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3070BE-565E-4C99-9879-6820914EADD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C76B2-F7A8-46AD-A912-62C83B62AABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1215" windowWidth="34455" windowHeight="15435" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="122">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>ExerciseRepository.Update überarbeitet</t>
+  </si>
+  <si>
+    <t>MinimalExercise hinzugefügt</t>
+  </si>
+  <si>
+    <t>ExerciseInstance hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -3105,7 +3111,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.291666666666667</c:v>
+                  <c:v>2.3958333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7767,7 +7773,7 @@
       </c>
       <c r="D27" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.1875</v>
+        <v>0.29166666666666674</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>11</v>
@@ -10731,7 +10737,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>4.8750000000000018</v>
+        <v>4.9791666666666687</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10742,7 +10748,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.33815028901734123</v>
+        <v>0.3453757225433528</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11732,7 +11738,7 @@
       </c>
       <c r="D20" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B20,Roman!F:F)</f>
-        <v>0.1875</v>
+        <v>0.29166666666666674</v>
       </c>
       <c r="E20" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B20,Michi!F:F)</f>
@@ -11744,7 +11750,7 @@
       </c>
       <c r="G20" s="67">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.29166666666666674</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12332,7 +12338,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.291666666666667</v>
+        <v>2.3958333333333339</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12344,7 +12350,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>4.875</v>
+        <v>4.9791666666666679</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13576,7 +13582,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13633,7 +13639,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>2.416666666666667</v>
+        <v>2.5208333333333339</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14130,7 +14136,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44182</v>
       </c>
@@ -14153,22 +14159,46 @@
       <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="55">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E28" s="55">
+        <v>0.625</v>
+      </c>
       <c r="F28" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="64">
+        <v>44192</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="55">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E29" s="55">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="F29" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="G29" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C76B2-F7A8-46AD-A912-62C83B62AABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11026CAF-6D8D-437C-8FEB-466D1C71F7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="123">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>ExerciseInstance hinzugefügt</t>
+  </si>
+  <si>
+    <t>GetExerciseInstance hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -3111,7 +3114,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3958333333333339</c:v>
+                  <c:v>2.4444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7773,7 +7776,7 @@
       </c>
       <c r="D27" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.29166666666666674</v>
+        <v>0.3402777777777779</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>11</v>
@@ -10737,7 +10740,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>4.9791666666666687</v>
+        <v>5.0277777777777795</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10748,7 +10751,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.3453757225433528</v>
+        <v>0.34874759152215817</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11738,7 +11741,7 @@
       </c>
       <c r="D20" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B20,Roman!F:F)</f>
-        <v>0.29166666666666674</v>
+        <v>0.3402777777777779</v>
       </c>
       <c r="E20" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B20,Michi!F:F)</f>
@@ -11750,7 +11753,7 @@
       </c>
       <c r="G20" s="67">
         <f t="shared" si="0"/>
-        <v>0.29166666666666674</v>
+        <v>0.3402777777777779</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12338,7 +12341,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.3958333333333339</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12350,7 +12353,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>4.9791666666666679</v>
+        <v>5.0277777777777786</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13582,7 +13585,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13639,7 +13642,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>2.5208333333333339</v>
+        <v>2.5694444444444451</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14158,7 +14161,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44187</v>
       </c>
@@ -14180,7 +14183,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44192</v>
       </c>
@@ -14203,12 +14206,24 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="A30" s="64">
+        <v>44192</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="55">
+        <v>0.8125</v>
+      </c>
+      <c r="E30" s="55">
+        <v>0.86111111111111116</v>
+      </c>
       <c r="F30" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="G30" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11026CAF-6D8D-437C-8FEB-466D1C71F7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE920C-39D8-4F58-8097-AFA688B09A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="125">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>GetExerciseInstance hinzugefügt</t>
+  </si>
+  <si>
+    <t>CollectioInstance erstellen</t>
+  </si>
+  <si>
+    <t>CollectioInstance hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3120,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4444444444444446</c:v>
+                  <c:v>2.5486111111111116</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7776,7 +7782,7 @@
       </c>
       <c r="D27" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.3402777777777779</v>
+        <v>0.44444444444444464</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>11</v>
@@ -10740,18 +10746,18 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>5.0277777777777795</v>
+        <v>5.1319444444444464</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
       </c>
       <c r="F54" s="31" t="str">
         <f>IF(D54=Übersicht!G44,"OK","FEHLER")</f>
-        <v>OK</v>
+        <v>FEHLER</v>
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.34874759152215817</v>
+        <v>0.35597302504816974</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11741,7 +11747,7 @@
       </c>
       <c r="D20" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B20,Roman!F:F)</f>
-        <v>0.3402777777777779</v>
+        <v>0.44444444444444464</v>
       </c>
       <c r="E20" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B20,Michi!F:F)</f>
@@ -11753,7 +11759,7 @@
       </c>
       <c r="G20" s="67">
         <f t="shared" si="0"/>
-        <v>0.3402777777777779</v>
+        <v>0.44444444444444464</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12341,7 +12347,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.4444444444444446</v>
+        <v>2.5486111111111116</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12353,7 +12359,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>5.0277777777777786</v>
+        <v>5.1319444444444446</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13585,7 +13591,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13642,7 +13648,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>2.5694444444444451</v>
+        <v>2.673611111111112</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14205,7 +14211,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44192</v>
       </c>
@@ -14228,22 +14234,46 @@
       <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="A31" s="64">
+        <v>44193</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="E31" s="55">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F31" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
+      <c r="A32" s="64">
+        <v>44164</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="55">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F32" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G32" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE920C-39D8-4F58-8097-AFA688B09A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B5421-891F-4497-9726-69AC965576CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="126">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>CollectioInstance hinzugefügt</t>
+  </si>
+  <si>
+    <t>Typo Fix, Fields verschieben, Error Handling</t>
   </si>
 </sst>
 </file>
@@ -3120,7 +3123,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5486111111111116</c:v>
+                  <c:v>2.6319444444444451</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7697,7 +7700,7 @@
       </c>
       <c r="D26" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.68750000000000011</v>
+        <v>0.77083333333333348</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -10746,18 +10749,18 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>5.1319444444444464</v>
+        <v>5.2152777777777795</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
       </c>
       <c r="F54" s="31" t="str">
         <f>IF(D54=Übersicht!G44,"OK","FEHLER")</f>
-        <v>FEHLER</v>
+        <v>OK</v>
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.35597302504816974</v>
+        <v>0.36175337186897899</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11722,7 +11725,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>0.68750000000000011</v>
+        <v>0.77083333333333348</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11734,7 +11737,7 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>0.68750000000000011</v>
+        <v>0.77083333333333348</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12347,7 +12350,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.5486111111111116</v>
+        <v>2.6319444444444451</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12359,7 +12362,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>5.1319444444444446</v>
+        <v>5.2152777777777786</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13591,14 +13594,14 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="37" style="19" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="19" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="19"/>
     <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="19"/>
@@ -13648,7 +13651,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>2.673611111111112</v>
+        <v>2.7569444444444455</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14255,7 +14258,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44164</v>
       </c>
@@ -14278,12 +14281,24 @@
       <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="A33" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="55">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E33" s="55">
+        <v>0.875</v>
+      </c>
       <c r="F33" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="G33" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B5421-891F-4497-9726-69AC965576CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E532A4E-CEB0-43DE-AAAB-5B9E690181B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1830" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="128">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>Typo Fix, Fields verschieben, Error Handling</t>
+  </si>
+  <si>
+    <t>Return user id on authenticate</t>
+  </si>
+  <si>
+    <t>Refactored exercise getbyid</t>
   </si>
 </sst>
 </file>
@@ -3123,7 +3129,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6319444444444451</c:v>
+                  <c:v>2.6944444444444451</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7785,7 +7791,7 @@
       </c>
       <c r="D27" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.44444444444444464</v>
+        <v>0.50694444444444464</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>11</v>
@@ -10749,7 +10755,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>5.2152777777777795</v>
+        <v>5.2777777777777795</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10760,7 +10766,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.36175337186897899</v>
+        <v>0.36608863198458591</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11750,7 +11756,7 @@
       </c>
       <c r="D20" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B20,Roman!F:F)</f>
-        <v>0.44444444444444464</v>
+        <v>0.50694444444444464</v>
       </c>
       <c r="E20" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B20,Michi!F:F)</f>
@@ -11762,7 +11768,7 @@
       </c>
       <c r="G20" s="67">
         <f t="shared" si="0"/>
-        <v>0.44444444444444464</v>
+        <v>0.50694444444444464</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12350,7 +12356,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.6319444444444451</v>
+        <v>2.6944444444444451</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12362,7 +12368,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>5.2152777777777786</v>
+        <v>5.2777777777777786</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13594,7 +13600,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13651,7 +13657,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>2.7569444444444455</v>
+        <v>2.8194444444444455</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14303,22 +14309,46 @@
       <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
+      <c r="A34" s="64">
+        <v>44200</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="55">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E34" s="55">
+        <v>0.9375</v>
+      </c>
       <c r="F34" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="A35" s="64">
+        <v>44201</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="55">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E35" s="55">
+        <v>0.75</v>
+      </c>
       <c r="F35" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="G35" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E532A4E-CEB0-43DE-AAAB-5B9E690181B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D5811A-5154-4ADA-AC8B-5B052A6A7C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1830" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>Refactored exercise getbyid</t>
+  </si>
+  <si>
+    <t>Collection Refactor</t>
   </si>
 </sst>
 </file>
@@ -3129,7 +3132,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6944444444444451</c:v>
+                  <c:v>2.9861111111111116</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7706,7 +7709,7 @@
       </c>
       <c r="D26" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.77083333333333348</v>
+        <v>1.0625</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -10755,18 +10758,18 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>5.2777777777777795</v>
+        <v>5.5694444444444464</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
       </c>
       <c r="F54" s="31" t="str">
         <f>IF(D54=Übersicht!G44,"OK","FEHLER")</f>
-        <v>OK</v>
+        <v>FEHLER</v>
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.36608863198458591</v>
+        <v>0.3863198458574183</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11731,7 +11734,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>0.77083333333333348</v>
+        <v>1.0625</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11743,7 +11746,7 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>0.77083333333333348</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12356,7 +12359,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.6944444444444451</v>
+        <v>2.9861111111111116</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12368,7 +12371,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>5.2777777777777786</v>
+        <v>5.5694444444444446</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13600,7 +13603,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13657,7 +13660,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>2.8194444444444455</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14353,12 +14356,24 @@
       <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
+      <c r="A36" s="64">
+        <v>44207</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E36" s="55">
+        <v>0.875</v>
+      </c>
       <c r="F36" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G36" s="55"/>
     </row>

--- a/doc/Projektablaufplan.xlsx
+++ b/doc/Projektablaufplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D5811A-5154-4ADA-AC8B-5B052A6A7C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15752899-943B-41D6-9FAE-EECB33693991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="130">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Collection Refactor</t>
+  </si>
+  <si>
+    <t>Collection GetById und CreateOrUpdate</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3135,7 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9861111111111116</c:v>
+                  <c:v>3.1111111111111116</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93750000000000022</c:v>
@@ -7794,7 +7797,7 @@
       </c>
       <c r="D27" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.50694444444444464</v>
+        <v>0.63194444444444464</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>11</v>
@@ -10758,7 +10761,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>5.5694444444444464</v>
+        <v>5.6944444444444464</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10769,7 +10772,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.3863198458574183</v>
+        <v>0.39499036608863219</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11759,7 +11762,7 @@
       </c>
       <c r="D20" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B20,Roman!F:F)</f>
-        <v>0.50694444444444464</v>
+        <v>0.63194444444444464</v>
       </c>
       <c r="E20" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B20,Michi!F:F)</f>
@@ -11771,7 +11774,7 @@
       </c>
       <c r="G20" s="67">
         <f t="shared" si="0"/>
-        <v>0.50694444444444464</v>
+        <v>0.63194444444444464</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -12359,7 +12362,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>2.9861111111111116</v>
+        <v>3.1111111111111116</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12371,7 +12374,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>5.5694444444444446</v>
+        <v>5.6944444444444446</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
@@ -13603,7 +13606,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13660,7 +13663,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>3.111111111111112</v>
+        <v>3.236111111111112</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14378,12 +14381,24 @@
       <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
+      <c r="A37" s="64">
+        <v>44208</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="55">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E37" s="55">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="F37" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G37" s="55"/>
     </row>
